--- a/workbooks/rasp3.xlsx
+++ b/workbooks/rasp3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alina.Zubkova\Desktop\расписание 2020-2021 гг\Расписание с 12.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alina.Zubkova\Desktop\расписание 2020-2021 гг\расписание новое Валя\расписание с 6 апреля\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="302,303,311,305,315" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="330,331,335,336,337" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'302,303,311,305,315'!$A$1:$S$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'302,303,311,305,315'!$A$1:$P$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'330,331,335,336,337'!$A$1:$AF$44</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="161">
   <si>
     <t>РАСПИСАНИЕ</t>
   </si>
@@ -138,50 +138,6 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>311-18 ПЧ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Аскарова А.И.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-416 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t>305-18 КСК</t>
     </r>
     <r>
@@ -499,9 +455,6 @@
     <t>Шакурова Л.А.</t>
   </si>
   <si>
-    <t>Багаутдинова Э.З.</t>
-  </si>
-  <si>
     <t>Гайнанова А.С.</t>
   </si>
   <si>
@@ -578,12 +531,6 @@
   </si>
   <si>
     <t>Заместитель директора  по УР   _______________________   О.С. Тимофеева                                                    Заведующий учебной частью ___________________ Э.И. Хайруллина</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>Латыпова Д.Ф.</t>
   </si>
   <si>
     <t>Закирова Э.Р.
@@ -768,6 +715,250 @@
     </r>
   </si>
   <si>
+    <t>МДК.05.01 Выполнение работ по профессии электромонтер станционного оборудования телефонной связи</t>
+  </si>
+  <si>
+    <t>Кушукбаев М.Р.</t>
+  </si>
+  <si>
+    <t>МДК.03.01 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией каналов</t>
+  </si>
+  <si>
+    <t>МДК.03.01 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией каналов (КП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МДК.03.01 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией каналов </t>
+  </si>
+  <si>
+    <t>МДК.03.03 Технология монтажа и обслуживания многоканальных телекоммуникационных систем и направляющих систем электросвязи</t>
+  </si>
+  <si>
+    <t>МДК.03.02 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией пакетов</t>
+  </si>
+  <si>
+    <t>Вальшина М.А.
+Крохина С.В.</t>
+  </si>
+  <si>
+    <t>Психология общения</t>
+  </si>
+  <si>
+    <t>Галеева А.Р.</t>
+  </si>
+  <si>
+    <t>Кушукбаев М.Р.
+Шагиахметов Р.Ю.</t>
+  </si>
+  <si>
+    <t>МДК.01.03 Технология монтажа и обслуживания цифровых систем коммутации</t>
+  </si>
+  <si>
+    <t>МДК.01.02 Технология монтажа и обслуживания цифровых и волоконно-оптических систем передачи</t>
+  </si>
+  <si>
+    <t>МДК.01.01 Технология монтажа и обслуживания направляющих систем</t>
+  </si>
+  <si>
+    <t>Тимохина В.А.</t>
+  </si>
+  <si>
+    <t>Правовое обеспечение профессиональной деятельности</t>
+  </si>
+  <si>
+    <t>Архитектура компьютерных систем</t>
+  </si>
+  <si>
+    <t>Солонцов М.А.</t>
+  </si>
+  <si>
+    <t>Электропитание средств вычислительной техники</t>
+  </si>
+  <si>
+    <t>Хафизова С.Д.</t>
+  </si>
+  <si>
+    <t>Хафизова С.Д.
+Искакова В.В.</t>
+  </si>
+  <si>
+    <t>МДК.02.01 Микропроцессорные системы</t>
+  </si>
+  <si>
+    <t>Нурыев Н.Н.</t>
+  </si>
+  <si>
+    <t>МДК.02.04 Компьютерные сети и телекоммуникации</t>
+  </si>
+  <si>
+    <t>Крохина С.В.
+Васильева Е.С.</t>
+  </si>
+  <si>
+    <t>1203
+1201</t>
+  </si>
+  <si>
+    <t>МДК.01.02 Проектирование цифровых устройств</t>
+  </si>
+  <si>
+    <t>Метрология, стандартизация и сертификация</t>
+  </si>
+  <si>
+    <t>Нурыев Н.Н.
+Яковлева И.Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МДК.01.02 Проектирование цифровых устройств </t>
+  </si>
+  <si>
+    <t>МДК.01.02 Проектирование цифровых устройств  (КП)</t>
+  </si>
+  <si>
+    <t>МДК.01.02 Поддержка и тестирование программных модулей</t>
+  </si>
+  <si>
+    <t>Петрова А.Р.
+Косолап А.Н.</t>
+  </si>
+  <si>
+    <t>МДК.07.01 Управление и автоматизация баз данных</t>
+  </si>
+  <si>
+    <t>МДК.07.02 Сертификация информационных систем</t>
+  </si>
+  <si>
+    <t>Экономика отрасли</t>
+  </si>
+  <si>
+    <t>МДК.06.01 Внедрение информационных систем</t>
+  </si>
+  <si>
+    <t>МДК.08.02 Графический дизайн и мультимедиа</t>
+  </si>
+  <si>
+    <t>Хайруллин Д.И.
+Зарипов Р.Р.</t>
+  </si>
+  <si>
+    <t>МДК.08.01 Проектирование и разработка интерфейсов пользователя</t>
+  </si>
+  <si>
+    <t>Основы философии</t>
+  </si>
+  <si>
+    <t>Гайфутдинова Е.И.</t>
+  </si>
+  <si>
+    <t>Стандартизация, сертификация и техническое документоведение</t>
+  </si>
+  <si>
+    <t>МДК.01.04 Эксплуатация автоматизированных (информационных) систем в защищенном исполнении</t>
+  </si>
+  <si>
+    <t>Ильясова А.Б.</t>
+  </si>
+  <si>
+    <t>МДК.01.05 Эксплуатация компьютерных сетей</t>
+  </si>
+  <si>
+    <t>Макаров А.А.
+Сабурская В.К.</t>
+  </si>
+  <si>
+    <t>Валиуллов Б.И.
+Сабурская В.К.</t>
+  </si>
+  <si>
+    <t>Валиуллов Б.И.</t>
+  </si>
+  <si>
+    <t>Макаров А.А.</t>
+  </si>
+  <si>
+    <t>Вильданова Г.Р.</t>
+  </si>
+  <si>
+    <t>МДК.02.03 Организация администрирования компьютерных систем</t>
+  </si>
+  <si>
+    <t>МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей</t>
+  </si>
+  <si>
+    <t>Валиуллина А.Р.</t>
+  </si>
+  <si>
+    <t>МДК.02.01 Администрирование сетевых операционных систем</t>
+  </si>
+  <si>
+    <t>Фазулзянов А.Р.</t>
+  </si>
+  <si>
+    <t>Юсупов Р.Р.</t>
+  </si>
+  <si>
+    <t>Юсупов Р.Р.
+Шакурова Л.А.</t>
+  </si>
+  <si>
+    <t>Валиуллина А.Р.
+Васильева Е.С.</t>
+  </si>
+  <si>
+    <t>Соловьева Ю.П.</t>
+  </si>
+  <si>
+    <t>МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей (КП)</t>
+  </si>
+  <si>
+    <t>МДК.02.01 Программно-аппаратные средства средства защиты информации</t>
+  </si>
+  <si>
+    <t>МДК.02.01 Программно-аппаратные средства средства защиты информации (КП)</t>
+  </si>
+  <si>
+    <t>Мурсалимов Д.Р.</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>406
+411</t>
+  </si>
+  <si>
+    <t>304
+411</t>
+  </si>
+  <si>
+    <t>313
+411</t>
+  </si>
+  <si>
+    <t>МДК.01.01 Разработка программных модулей (КП)</t>
+  </si>
+  <si>
+    <t>406
+413</t>
+  </si>
+  <si>
+    <t>МДК.01.02 Технология монтажа и обслуживания цифровых и волоконно-оптических систем передачи (КП)</t>
+  </si>
+  <si>
+    <t>МДК.01.02 Проектирование цифровых устройств (КП)</t>
+  </si>
+  <si>
+    <t>МДК.11.01 Технология разработки и защиты баз данных (КП)</t>
+  </si>
+  <si>
+    <t>МДК.05.01 Проектирование и дизайн информационных систем (КП)</t>
+  </si>
+  <si>
+    <t>МДК.08.01 Проектирование и разработка интерфейсов пользователя (КП)</t>
+  </si>
+  <si>
+    <t>Хайруллин Д.И.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">                                         " _</t>
     </r>
@@ -779,7 +970,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>21</t>
+      <t>01</t>
     </r>
     <r>
       <rPr>
@@ -798,7 +989,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>декабря</t>
+      <t>марта</t>
     </r>
     <r>
       <rPr>
@@ -807,697 +998,64 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>_ 2020 г.</t>
+      <t>_ 2021 г.</t>
     </r>
   </si>
   <si>
-    <t>МДК.05.01 Выполнение работ по профессии электромонтер станционного оборудования телефонной связи</t>
-  </si>
-  <si>
-    <t>Кушукбаев М.Р.</t>
-  </si>
-  <si>
-    <t>МДК.03.01 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией каналов</t>
-  </si>
-  <si>
-    <t>МДК.03.01 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией каналов (КП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МДК.03.01 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией каналов </t>
-  </si>
-  <si>
-    <t>Васильева Е.С</t>
-  </si>
-  <si>
-    <t>МДК.03.03 Технология монтажа и обслуживания многоканальных телекоммуникационных систем и направляющих систем электросвязи</t>
-  </si>
-  <si>
-    <t>МДК.03.02 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией пакетов</t>
-  </si>
-  <si>
-    <t>Вальшина М.А.
-Крохина С.В.</t>
-  </si>
-  <si>
-    <t>Моисеева А.А.
-Латыпова Д.Ф.</t>
-  </si>
-  <si>
-    <t>____________________________
-МДК.03.02 Технология монтажа и обслуживания телекоммуникационных систем с коммутацией пакетов</t>
-  </si>
-  <si>
-    <t>____________
-Вальшина М.А.</t>
-  </si>
-  <si>
-    <t>Психология общения</t>
-  </si>
-  <si>
-    <t>Галеева А.Р.</t>
-  </si>
-  <si>
-    <t>Кушукбаев М.Р.
-Шагиахметов Р.Ю.</t>
-  </si>
-  <si>
-    <t>МДК.01.03 Технология монтажа и обслуживания цифровых систем коммутации</t>
-  </si>
-  <si>
-    <t>МДК.01.02 Технология монтажа и обслуживания цифровых и волоконно-оптических систем передачи</t>
-  </si>
-  <si>
-    <t>___________________________
-МДК.01.01 Технология монтажа и обслуживания направляющих систем</t>
-  </si>
-  <si>
-    <t>___________
-Тимохина В.А.</t>
-  </si>
-  <si>
-    <t>МДК.01.01 Технология монтажа и обслуживания направляющих систем</t>
-  </si>
-  <si>
-    <t>Тимохина В.А.</t>
-  </si>
-  <si>
-    <t>Маннапова Д.Ф.</t>
-  </si>
-  <si>
-    <t>МДК.03.01 Основы эксплуатации сетей почтовой связи</t>
-  </si>
-  <si>
-    <t>МДК.03.01 Основы эксплуатации сетей почтовой связи (КП)</t>
-  </si>
-  <si>
-    <t>Правовое обеспечение профессиональной деятельности</t>
-  </si>
-  <si>
-    <t>МДК.03.02 Безопасность на предприятиях почтовой связи</t>
-  </si>
-  <si>
-    <t>МДК.04.01 Технология оформления почтовых операций оператором почтовой связи</t>
-  </si>
-  <si>
-    <t>Багаутдинова Э.З.
-Маннапова Д.Ф.</t>
-  </si>
-  <si>
-    <t>МДК.04.02 Технология оформления финансовых и других видов услуг оператором почтовой связи</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">                                         " _01_ " _</t>
+    </r>
     <r>
       <rPr>
         <u/>
-        <sz val="28"/>
+        <sz val="26"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>МДК.03.01 Основы эксплуатации сетей почтовой связи</t>
+      <t>марта</t>
     </r>
     <r>
       <rPr>
-        <sz val="28"/>
+        <sz val="26"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">
-МДК.04.01 Технология оформления почтовых операций оператором почтовой связи</t>
+      <t>_ 2021 г.</t>
     </r>
   </si>
   <si>
-    <t>Архитектура компьютерных систем</t>
-  </si>
-  <si>
-    <t>Солонцов М.А.</t>
-  </si>
-  <si>
-    <t>Электропитание средств вычислительной техники</t>
-  </si>
-  <si>
-    <t>Хафизова С.Д.</t>
-  </si>
-  <si>
-    <t>Хафизова С.Д.
-Искакова В.В.</t>
-  </si>
-  <si>
-    <t>МДК.02.01 Микропроцессорные системы</t>
-  </si>
-  <si>
-    <t>Нурыев Н.Н.</t>
-  </si>
-  <si>
-    <t>МДК.02.04 Компьютерные сети и телекоммуникации</t>
-  </si>
-  <si>
-    <t>Крохина С.В.
-Васильева Е.С.</t>
-  </si>
-  <si>
-    <t>1203
-1201</t>
-  </si>
-  <si>
-    <t>МДК.01.02 Проектирование цифровых устройств</t>
-  </si>
-  <si>
-    <t>Метрология, стандартизация и сертификация</t>
-  </si>
-  <si>
-    <t>Нурыев Н.Н.
-Яковлева И.Н.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МДК.01.02 Проектирование цифровых устройств </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Метрология, стандартизация и сертификация</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Архитектура компьютерных систем</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Гайнанова А.С.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Солонцов М.А.</t>
-    </r>
-  </si>
-  <si>
-    <t>МДК.01.02 Проектирование цифровых устройств  (КП)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>МДК.01.01 Разработка программных модулей</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-МДК.01.03 Разработка мобильных приложений</t>
-    </r>
-  </si>
-  <si>
-    <t>МДК.01.02 Поддержка и тестирование программных модулей</t>
-  </si>
-  <si>
-    <t>Петрова А.Р.
-Косолап А.Н.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>МДК.01.02 Поддержка и тестирование программных модулей</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-МДК.01.04 Системное программирование</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1318</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-1220</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Гурьянова А.Р.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Долгова И.И.
+Калинина Л.Р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Начаров В.С.</t>
-    </r>
-  </si>
-  <si>
-    <t>МДК.07.01 Управление и автоматизация баз данных</t>
-  </si>
-  <si>
-    <t>МДК.07.02 Сертификация информационных систем</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>МДК.07.02 Сертификация информационных систем</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-МДК.11.01 Технология разработки и защиты баз данных</t>
-    </r>
-  </si>
-  <si>
-    <t>____
-1312</t>
-  </si>
-  <si>
-    <t>_______
-Жук Ю.А.</t>
-  </si>
-  <si>
-    <t>Экономика отрасли</t>
-  </si>
-  <si>
-    <t>Минапова Р.Я.</t>
-  </si>
-  <si>
-    <t>__________________________
-МДК.07.02 Сертификация информационных систем</t>
-  </si>
-  <si>
-    <t>МДК.06.01 Внедрение информационных систем</t>
-  </si>
-  <si>
-    <t>Вакансия</t>
-  </si>
-  <si>
-    <t>МДК.08.02 Графический дизайн и мультимедиа</t>
-  </si>
-  <si>
-    <t>Хайруллин Д.И.
-Зарипов Р.Р.</t>
-  </si>
-  <si>
-    <t>МДК.08.01 Проектирование и разработка интерфейсов пользователя</t>
-  </si>
-  <si>
-    <t>Основы философии</t>
-  </si>
-  <si>
-    <t>Гайфутдинова Е.И.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>МДК.08.01 Проектирование и разработка интерфейсов пользователя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-МДК.08.02 Графический дизайн и мультимедиа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Зарипов Р.Р.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Хайруллин Д.И.</t>
-    </r>
-  </si>
-  <si>
-    <t>Стандартизация, сертификация и техническое документоведение</t>
-  </si>
-  <si>
-    <t>МДК.01.04 Эксплуатация автоматизированных (информационных) систем в защищенном исполнении</t>
-  </si>
-  <si>
-    <t>Ильясова А.Б.</t>
-  </si>
-  <si>
-    <t>МДК.01.05 Эксплуатация компьютерных сетей</t>
-  </si>
-  <si>
-    <t>Макаров А.А.
-Сабурская В.К.</t>
-  </si>
-  <si>
-    <t>Валиуллов Б.И.
-Сабурская В.К.</t>
-  </si>
-  <si>
-    <t>Валиуллов Б.И.</t>
-  </si>
-  <si>
-    <t>Макаров А.А.</t>
-  </si>
-  <si>
-    <t>Безопасность жизнедеятельности (с 1 - 3 неделю)
-МДК.01.04 Эксплуатация автоматизированных (информационных) систем в защищенном исполнении (с 4-11 неделю)
+  </si>
+  <si>
+    <t>Моисеева А.А.
+Аширова Н.Т.</t>
+  </si>
+  <si>
+    <t>Аширова Н.Т.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Макаров А.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 МДК.01.05 Эксплуатация компьютерных сетей (с 12-16 неделю)</t>
   </si>
   <si>
-    <t>Гумеров Р.К.
-Ильясова А.Б.
-Макаров А.А.</t>
-  </si>
-  <si>
-    <t>205
-1317
-1314</t>
-  </si>
-  <si>
-    <t>Вильданова Г.Р.</t>
-  </si>
-  <si>
-    <t>МДК.02.03 Организация администрирования компьютерных систем</t>
-  </si>
-  <si>
-    <t>МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей</t>
-  </si>
-  <si>
-    <t>Валиуллина А.Р.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Стандартизация, сертификация и техническое документоведение</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>402</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-1217</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Гайнанова А.С.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Валиуллина А.Р.</t>
-    </r>
-  </si>
-  <si>
-    <t>МДК.02.01 Администрирование сетевых операционных систем</t>
-  </si>
-  <si>
-    <t>Фазулзянов А.Р.</t>
-  </si>
-  <si>
-    <t>Юсупов Р.Р.</t>
-  </si>
-  <si>
-    <t>Юсупов Р.Р.
-Шакурова Л.А.</t>
-  </si>
-  <si>
-    <t>Валиуллина А.Р.
-Васильева Е.С.</t>
-  </si>
-  <si>
-    <t>Соловьева Ю.П.</t>
-  </si>
-  <si>
-    <t>МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей (КП)</t>
-  </si>
-  <si>
-    <t>занятий 3 курса на 6 семестр 2020-2021 учебного года</t>
-  </si>
-  <si>
-    <t>МДК.02.01 Программно-аппаратные средства средства защиты информации</t>
-  </si>
-  <si>
-    <t>МДК.02.01 Программно-аппаратные средства средства защиты информации (КП)</t>
-  </si>
-  <si>
-    <t>Мурсалимов Д.Р.</t>
-  </si>
-  <si>
-    <t>____
-1202</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>406
-411</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>304
-411</t>
-  </si>
-  <si>
-    <t>414
-411</t>
-  </si>
-  <si>
-    <t>313
-411</t>
-  </si>
-  <si>
-    <t>МДК.01.01 Разработка программных модулей (КП)</t>
-  </si>
-  <si>
-    <t>406
-413</t>
-  </si>
-  <si>
-    <t>МДК.01.02 Технология монтажа и обслуживания цифровых и волоконно-оптических систем передачи (КП)</t>
-  </si>
-  <si>
-    <t>МДК.01.02 Проектирование цифровых устройств (КП)</t>
-  </si>
-  <si>
-    <t>МДК.11.01 Технология разработки и защиты баз данных (КП)</t>
-  </si>
-  <si>
-    <t>МДК.05.01 Проектирование и дизайн информационных систем (КП)</t>
-  </si>
-  <si>
-    <t>МДК.08.01 Проектирование и разработка интерфейсов пользователя (КП)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Правовое обеспечение профессиональной деятельности
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>МДК.05.03 Тестирование информационных систем</t>
-    </r>
-  </si>
-  <si>
-    <t>Хайруллин Д.И.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-311</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Фатхутдинова А.С.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Зарипов Р.Р.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">408
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1304</t>
-    </r>
+    <t>МДК.01.05 Эксплуатация компьютерных сетей (с 12-16 неделю)</t>
+  </si>
+  <si>
+    <t>Ильченко А.А.</t>
+  </si>
+  <si>
+    <t>занятий 3 курса на 6 семестр 2020-2021 учебного года (с 06.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -2368,7 +1926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2621,9 +2179,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2768,9 +2323,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2839,41 +2391,65 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2883,27 +2459,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3221,16 +2776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F28" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="44" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView view="pageBreakPreview" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="44" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
@@ -3240,80 +2792,67 @@
     <col min="6" max="6" width="27.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="108" style="4" customWidth="1"/>
     <col min="8" max="8" width="47.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="152.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="52.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="133.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="54.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="124.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="48.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="15" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="20.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="133.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="124.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.45">
       <c r="D1" s="66"/>
       <c r="K1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="37.5" x14ac:dyDescent="0.5">
-      <c r="G2" s="183" t="s">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.5">
+      <c r="G2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="P2" s="26" t="s">
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="M2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="N2" s="1"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="35.25" x14ac:dyDescent="0.5">
       <c r="E3" s="3"/>
-      <c r="G3" s="182" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="P3" s="24" t="s">
+      <c r="G3" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="33" x14ac:dyDescent="0.45">
+      <c r="N3" s="1"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="33" x14ac:dyDescent="0.45">
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="P4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="172"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="M4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3321,14 +2860,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
@@ -3338,48 +2874,41 @@
       <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="184" t="s">
+      <c r="D6" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="185"/>
+      <c r="E6" s="174"/>
       <c r="F6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="185"/>
+      <c r="H6" s="174"/>
       <c r="I6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="186" t="s">
+      <c r="J6" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="187"/>
+      <c r="K6" s="174"/>
       <c r="L6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="184" t="s">
+      <c r="M6" s="173" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="174"/>
+      <c r="O6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="175" t="s">
         <v>11</v>
-      </c>
-      <c r="N6" s="185"/>
-      <c r="O6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="184" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="175" t="s">
-        <v>12</v>
       </c>
       <c r="B7" s="50">
         <v>1</v>
@@ -3387,249 +2916,213 @@
       <c r="C7" s="57">
         <v>1302</v>
       </c>
-      <c r="D7" s="155" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>93</v>
+      <c r="D7" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="56"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="57">
-        <v>314</v>
-      </c>
-      <c r="J7" s="163" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="143" t="s">
+      <c r="G7" s="161"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="99">
+        <v>1307</v>
+      </c>
+      <c r="J7" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="61">
-        <v>1307</v>
-      </c>
-      <c r="M7" s="155" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="R7" s="48">
+      <c r="K7" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="48">
         <v>1</v>
       </c>
-      <c r="S7" s="175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P7" s="175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="176"/>
       <c r="B8" s="43">
         <v>2</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="D8" s="153" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="61">
         <v>1302</v>
       </c>
-      <c r="G8" s="155" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="56">
-        <v>314</v>
+      <c r="G8" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="83">
+        <v>413</v>
       </c>
       <c r="J8" s="155" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="83">
-        <v>413</v>
-      </c>
-      <c r="M8" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" s="56">
+        <v>92</v>
+      </c>
+      <c r="K8" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="56">
         <v>1307</v>
       </c>
-      <c r="P8" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q8" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" s="43">
+      <c r="M8" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="43">
         <v>2</v>
       </c>
-      <c r="S8" s="176"/>
-    </row>
-    <row r="9" spans="1:19" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="176"/>
+    </row>
+    <row r="9" spans="1:16" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="176"/>
       <c r="B9" s="43">
         <v>3</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="96" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="D9" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="61">
         <v>414</v>
       </c>
-      <c r="G9" s="155" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="77">
-        <v>314</v>
-      </c>
-      <c r="J9" s="155" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="105" t="s">
-        <v>100</v>
+      <c r="G9" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="83">
+        <v>1307</v>
+      </c>
+      <c r="J9" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="103" t="s">
+        <v>96</v>
       </c>
       <c r="L9" s="83">
-        <v>1307</v>
+        <v>413</v>
       </c>
       <c r="M9" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" s="83">
-        <v>413</v>
-      </c>
-      <c r="P9" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="43">
+        <v>92</v>
+      </c>
+      <c r="N9" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="43">
         <v>3</v>
       </c>
-      <c r="S9" s="176"/>
-    </row>
-    <row r="10" spans="1:19" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P9" s="176"/>
+    </row>
+    <row r="10" spans="1:16" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177"/>
       <c r="B10" s="44">
         <v>4</v>
       </c>
       <c r="C10" s="70"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="104"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="56">
         <v>1201</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="56">
+      <c r="G10" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="83">
         <v>1307</v>
       </c>
-      <c r="M10" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="43">
+      <c r="J10" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="43">
         <v>4</v>
       </c>
-      <c r="S10" s="177"/>
-    </row>
-    <row r="11" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="177"/>
+    </row>
+    <row r="11" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="177"/>
       <c r="B11" s="44">
         <v>5</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="55"/>
-      <c r="E11" s="96"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="62"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="43">
+      <c r="G11" s="55"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="43">
         <v>5</v>
       </c>
-      <c r="S11" s="177"/>
-    </row>
-    <row r="12" spans="1:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P11" s="177"/>
+    </row>
+    <row r="12" spans="1:16" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="178"/>
       <c r="B12" s="49">
         <v>6</v>
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="74"/>
-      <c r="E12" s="111"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="62"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="43">
+      <c r="G12" s="116"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="43">
         <v>6</v>
       </c>
-      <c r="S12" s="178"/>
-    </row>
-    <row r="13" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="P12" s="178"/>
+    </row>
+    <row r="13" spans="1:16" ht="138" x14ac:dyDescent="0.35">
       <c r="A13" s="175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="50">
         <v>1</v>
@@ -3637,50 +3130,41 @@
       <c r="C13" s="79">
         <v>1202</v>
       </c>
-      <c r="D13" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="57">
-        <v>1201</v>
-      </c>
-      <c r="G13" s="169" t="s">
+      <c r="D13" s="153" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="161" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="57">
+        <v>1307</v>
+      </c>
+      <c r="M13" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="146"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="163" t="s">
-        <v>38</v>
-      </c>
       <c r="N13" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="57">
-        <v>1307</v>
-      </c>
-      <c r="P13" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q13" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="R13" s="50">
+        <v>96</v>
+      </c>
+      <c r="O13" s="50">
         <v>1</v>
       </c>
-      <c r="S13" s="175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="P13" s="175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="138" x14ac:dyDescent="0.35">
       <c r="A14" s="176"/>
       <c r="B14" s="43">
         <v>2</v>
@@ -3688,310 +3172,259 @@
       <c r="C14" s="59">
         <v>1202</v>
       </c>
-      <c r="D14" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>33</v>
+      <c r="D14" s="153" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="56">
         <v>1201</v>
       </c>
-      <c r="G14" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="104" t="s">
-        <v>40</v>
+      <c r="G14" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>39</v>
       </c>
       <c r="I14" s="56">
-        <v>314</v>
-      </c>
-      <c r="J14" s="156" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="96" t="s">
-        <v>43</v>
+        <v>1307</v>
+      </c>
+      <c r="J14" s="154" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="97" t="s">
+        <v>96</v>
       </c>
       <c r="L14" s="56">
-        <v>1307</v>
-      </c>
-      <c r="M14" s="156" t="s">
-        <v>119</v>
-      </c>
-      <c r="N14" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="56">
         <v>402</v>
       </c>
-      <c r="P14" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q14" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" s="43">
+      <c r="M14" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="43">
         <v>2</v>
       </c>
-      <c r="S14" s="176"/>
-    </row>
-    <row r="15" spans="1:19" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="P14" s="176"/>
+    </row>
+    <row r="15" spans="1:16" ht="103.5" x14ac:dyDescent="0.35">
       <c r="A15" s="176"/>
       <c r="B15" s="43">
         <v>3</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="56">
+        <v>1202</v>
+      </c>
+      <c r="G15" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="157" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="104" t="s">
-        <v>97</v>
+      <c r="H15" s="103" t="s">
+        <v>88</v>
       </c>
       <c r="I15" s="56">
-        <v>314</v>
-      </c>
-      <c r="J15" s="156" t="s">
+        <v>402</v>
+      </c>
+      <c r="J15" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="96" t="s">
-        <v>43</v>
+      <c r="K15" s="103" t="s">
+        <v>42</v>
       </c>
       <c r="L15" s="56">
-        <v>402</v>
-      </c>
-      <c r="M15" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="56">
         <v>1307</v>
       </c>
-      <c r="P15" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="R15" s="43">
+      <c r="M15" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="43">
         <v>3</v>
       </c>
-      <c r="S15" s="176"/>
-    </row>
-    <row r="16" spans="1:19" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="P15" s="176"/>
+    </row>
+    <row r="16" spans="1:16" ht="103.5" x14ac:dyDescent="0.35">
       <c r="A16" s="177"/>
       <c r="B16" s="44">
         <v>4</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="D16" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="56"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="59">
-        <v>314</v>
-      </c>
-      <c r="J16" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="62"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="43">
+      <c r="G16" s="154"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="56">
+        <v>1314</v>
+      </c>
+      <c r="M16" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="43">
         <v>4</v>
       </c>
-      <c r="S16" s="177"/>
-    </row>
-    <row r="17" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="177"/>
+    </row>
+    <row r="17" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="177"/>
       <c r="B17" s="44">
         <v>5</v>
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="54"/>
-      <c r="E17" s="96"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="56"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="56"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="55"/>
-      <c r="K17" s="105"/>
+      <c r="K17" s="170"/>
       <c r="L17" s="62"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="43">
+      <c r="M17" s="122"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="43">
         <v>5</v>
       </c>
-      <c r="S17" s="177"/>
-    </row>
-    <row r="18" spans="1:19" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P17" s="177"/>
+    </row>
+    <row r="18" spans="1:16" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="178"/>
       <c r="B18" s="49">
         <v>6</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="60"/>
       <c r="G18" s="72"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="43">
+      <c r="H18" s="108"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="43">
         <v>6</v>
       </c>
-      <c r="S18" s="178"/>
-    </row>
-    <row r="19" spans="1:19" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P18" s="178"/>
+    </row>
+    <row r="19" spans="1:16" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="87">
         <v>1</v>
       </c>
-      <c r="C19" s="119">
-        <v>1201</v>
-      </c>
-      <c r="D19" s="168" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="106" t="s">
-        <v>84</v>
-      </c>
+      <c r="C19" s="118"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="156" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="J19" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="98">
+        <v>423</v>
+      </c>
+      <c r="J19" s="156" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="57">
+        <v>1203</v>
+      </c>
+      <c r="M19" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="99">
-        <v>1316</v>
-      </c>
-      <c r="M19" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" s="129" t="s">
-        <v>110</v>
-      </c>
-      <c r="O19" s="57">
-        <v>1203</v>
-      </c>
-      <c r="P19" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="50">
+      <c r="O19" s="50">
         <v>1</v>
       </c>
-      <c r="S19" s="175" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="176"/>
       <c r="B20" s="40">
         <v>2</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="95" t="s">
         <v>38</v>
-      </c>
-      <c r="E20" s="96" t="s">
-        <v>39</v>
       </c>
       <c r="F20" s="56">
         <v>1201</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="94">
-        <v>301</v>
-      </c>
-      <c r="J20" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="96" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="61">
+        <v>1203</v>
+      </c>
+      <c r="J20" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>35</v>
       </c>
       <c r="L20" s="61">
-        <v>1203</v>
-      </c>
-      <c r="M20" s="162" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="61">
-        <v>1316</v>
-      </c>
-      <c r="P20" s="162" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="R20" s="43">
+        <v>423</v>
+      </c>
+      <c r="M20" s="160" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="43">
         <v>2</v>
       </c>
-      <c r="S20" s="176"/>
-    </row>
-    <row r="21" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="P20" s="176"/>
+    </row>
+    <row r="21" spans="1:16" ht="138" x14ac:dyDescent="0.35">
       <c r="A21" s="176"/>
       <c r="B21" s="40">
         <v>3</v>
@@ -3999,48 +3432,45 @@
       <c r="C21" s="59">
         <v>1202</v>
       </c>
-      <c r="D21" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>70</v>
+      <c r="D21" s="153" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>66</v>
       </c>
       <c r="F21" s="56">
         <v>1203</v>
       </c>
-      <c r="G21" s="157" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="146"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="61">
+      <c r="G21" s="155" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="61">
         <v>1307</v>
       </c>
-      <c r="M21" s="156" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="173" t="s">
-        <v>115</v>
-      </c>
-      <c r="O21" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R21" s="43">
+      <c r="J21" s="154" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="171" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="43">
         <v>3</v>
       </c>
-      <c r="S21" s="176"/>
-    </row>
-    <row r="22" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="P21" s="176"/>
+    </row>
+    <row r="22" spans="1:16" ht="138" x14ac:dyDescent="0.35">
       <c r="A22" s="177"/>
       <c r="B22" s="88">
         <v>4</v>
@@ -4048,188 +3478,161 @@
       <c r="C22" s="59">
         <v>1202</v>
       </c>
-      <c r="D22" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="104" t="s">
-        <v>33</v>
+      <c r="D22" s="153" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>32</v>
       </c>
       <c r="F22" s="56"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="159"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="157"/>
       <c r="I22" s="56"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="96"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="100"/>
       <c r="L22" s="56"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="44">
+      <c r="M22" s="154"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="44">
         <v>4</v>
       </c>
-      <c r="S22" s="177"/>
-    </row>
-    <row r="23" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="P22" s="177"/>
+    </row>
+    <row r="23" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="177"/>
       <c r="B23" s="88">
         <v>5</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="136"/>
+      <c r="E23" s="135"/>
       <c r="F23" s="73"/>
       <c r="G23" s="54"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="44">
+      <c r="H23" s="100"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="44">
         <v>5</v>
       </c>
-      <c r="S23" s="177"/>
-    </row>
-    <row r="24" spans="1:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P23" s="177"/>
+    </row>
+    <row r="24" spans="1:16" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="178"/>
       <c r="B24" s="89">
         <v>6</v>
       </c>
       <c r="C24" s="58"/>
       <c r="D24" s="72"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="127"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="74"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="110"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="109"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="49">
+      <c r="M24" s="72"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="49">
         <v>6</v>
       </c>
-      <c r="S24" s="178"/>
-    </row>
-    <row r="25" spans="1:19" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P24" s="178"/>
+    </row>
+    <row r="25" spans="1:16" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="50">
         <v>1</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="54"/>
-      <c r="E25" s="101"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="79">
         <v>1201</v>
       </c>
-      <c r="G25" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="156" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="96" t="s">
+      <c r="G25" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="61">
-        <v>411</v>
-      </c>
-      <c r="M25" s="157" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="56">
+      <c r="I25" s="61">
         <v>402</v>
       </c>
-      <c r="P25" s="156" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="R25" s="50">
+      <c r="J25" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="56">
+        <v>423</v>
+      </c>
+      <c r="M25" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="50">
         <v>1</v>
       </c>
-      <c r="S25" s="175" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="P25" s="175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="103.5" x14ac:dyDescent="0.35">
       <c r="A26" s="176"/>
       <c r="B26" s="51">
         <v>2</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="157" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>88</v>
+        <v>140</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="56">
         <v>1201</v>
       </c>
-      <c r="G26" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="59">
-        <v>314</v>
-      </c>
-      <c r="J26" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" s="96" t="s">
+      <c r="G26" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="56">
+        <v>423</v>
+      </c>
+      <c r="J26" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="56">
-        <v>402</v>
-      </c>
-      <c r="M26" s="156" t="s">
-        <v>123</v>
-      </c>
-      <c r="N26" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="O26" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="P26" s="157" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q26" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="R26" s="43">
+      <c r="O26" s="43">
         <v>2</v>
       </c>
-      <c r="S26" s="176"/>
-    </row>
-    <row r="27" spans="1:19" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="176"/>
+    </row>
+    <row r="27" spans="1:16" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="176"/>
       <c r="B27" s="43">
         <v>3</v>
@@ -4237,188 +3640,155 @@
       <c r="C27" s="56">
         <v>1201</v>
       </c>
-      <c r="D27" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>40</v>
+      <c r="D27" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="F27" s="56">
         <v>1202</v>
       </c>
-      <c r="G27" s="157" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="56">
-        <v>408</v>
-      </c>
-      <c r="J27" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="56"/>
+      <c r="G27" s="155" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="61"/>
       <c r="M27" s="155"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="56">
-        <v>1307</v>
-      </c>
-      <c r="P27" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q27" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="R27" s="43">
+      <c r="N27" s="97"/>
+      <c r="O27" s="43">
         <v>3</v>
       </c>
-      <c r="S27" s="176"/>
-    </row>
-    <row r="28" spans="1:19" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P27" s="176"/>
+    </row>
+    <row r="28" spans="1:16" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="177"/>
       <c r="B28" s="44">
         <v>4</v>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="135"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="56">
         <v>1201</v>
       </c>
-      <c r="G28" s="155" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="77"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="104"/>
+      <c r="G28" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="95"/>
       <c r="L28" s="56"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="44">
+      <c r="M28" s="154"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="44">
         <v>4</v>
       </c>
-      <c r="S28" s="177"/>
-    </row>
-    <row r="29" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P28" s="177"/>
+    </row>
+    <row r="29" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="177"/>
       <c r="B29" s="44">
         <v>5</v>
       </c>
       <c r="C29" s="62"/>
       <c r="D29" s="54"/>
-      <c r="E29" s="102"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="56"/>
       <c r="G29" s="55"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="56"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="44">
+      <c r="J29" s="54"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="44">
         <v>5</v>
       </c>
-      <c r="S29" s="177"/>
-    </row>
-    <row r="30" spans="1:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P29" s="177"/>
+    </row>
+    <row r="30" spans="1:16" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="178"/>
       <c r="B30" s="49">
         <v>6</v>
       </c>
       <c r="C30" s="60"/>
       <c r="D30" s="71"/>
-      <c r="E30" s="111"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="75"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="134"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="133"/>
       <c r="I30" s="58"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="111"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="110"/>
       <c r="L30" s="58"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="49">
+      <c r="M30" s="71"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="49">
         <v>6</v>
       </c>
-      <c r="S30" s="178"/>
-    </row>
-    <row r="31" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="P30" s="178"/>
+    </row>
+    <row r="31" spans="1:16" ht="103.5" x14ac:dyDescent="0.35">
       <c r="A31" s="175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="50">
         <v>1</v>
       </c>
-      <c r="C31" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="156" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>90</v>
+      <c r="C31" s="61">
+        <v>1202</v>
+      </c>
+      <c r="D31" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="F31" s="61">
         <v>419</v>
       </c>
-      <c r="G31" s="156" t="s">
+      <c r="G31" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="83">
+        <v>413</v>
+      </c>
+      <c r="J31" s="155" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="56">
+        <v>423</v>
+      </c>
+      <c r="M31" s="156" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="94">
-        <v>416</v>
-      </c>
-      <c r="J31" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="K31" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="83">
-        <v>413</v>
-      </c>
-      <c r="M31" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="O31" s="56">
-        <v>1316</v>
-      </c>
-      <c r="P31" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q31" s="129" t="s">
-        <v>110</v>
-      </c>
-      <c r="R31" s="50">
+      <c r="O31" s="50">
         <v>1</v>
       </c>
-      <c r="S31" s="175" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P31" s="175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="176"/>
       <c r="B32" s="43">
         <v>2</v>
@@ -4426,54 +3796,45 @@
       <c r="C32" s="61">
         <v>419</v>
       </c>
-      <c r="D32" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>92</v>
+      <c r="D32" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="95" t="s">
+        <v>83</v>
       </c>
       <c r="F32" s="56">
         <v>1202</v>
       </c>
-      <c r="G32" s="155" t="s">
+      <c r="G32" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="56">
+        <v>1307</v>
+      </c>
+      <c r="J32" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="56">
-        <v>314</v>
-      </c>
-      <c r="J32" s="156" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="56">
-        <v>1307</v>
+      <c r="K32" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="83">
+        <v>413</v>
       </c>
       <c r="M32" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="O32" s="83">
-        <v>413</v>
-      </c>
-      <c r="P32" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q32" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="R32" s="43">
+        <v>92</v>
+      </c>
+      <c r="N32" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="O32" s="43">
         <v>2</v>
       </c>
-      <c r="S32" s="176"/>
-    </row>
-    <row r="33" spans="1:22" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="P32" s="176"/>
+    </row>
+    <row r="33" spans="1:19" ht="103.5" x14ac:dyDescent="0.35">
       <c r="A33" s="176"/>
       <c r="B33" s="43">
         <v>3</v>
@@ -4481,48 +3842,39 @@
       <c r="C33" s="56">
         <v>1202</v>
       </c>
-      <c r="D33" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="96" t="s">
-        <v>40</v>
+      <c r="D33" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="F33" s="56">
         <v>401</v>
       </c>
-      <c r="G33" s="157" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="56"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="56">
+      <c r="G33" s="155" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="56"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="56">
         <v>1307</v>
       </c>
-      <c r="P33" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q33" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="R33" s="43">
+      <c r="M33" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" s="43">
         <v>3</v>
       </c>
-      <c r="S33" s="176"/>
-    </row>
-    <row r="34" spans="1:22" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="P33" s="176"/>
+    </row>
+    <row r="34" spans="1:19" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A34" s="176"/>
       <c r="B34" s="44">
         <v>4</v>
@@ -4530,100 +3882,85 @@
       <c r="C34" s="56">
         <v>1202</v>
       </c>
-      <c r="D34" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="96" t="s">
-        <v>40</v>
+      <c r="D34" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="F34" s="56">
         <v>1201</v>
       </c>
       <c r="G34" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="K34" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="56">
+        <v>85</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="56">
         <v>1307</v>
       </c>
-      <c r="P34" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q34" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="R34" s="44">
+      <c r="M34" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="O34" s="44">
         <v>4</v>
       </c>
-      <c r="S34" s="176"/>
-    </row>
-    <row r="35" spans="1:22" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="176"/>
+    </row>
+    <row r="35" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="177"/>
       <c r="B35" s="44">
         <v>5</v>
       </c>
       <c r="C35" s="62"/>
       <c r="D35" s="54"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="119"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="118"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="44">
+      <c r="H35" s="95"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="44">
         <v>5</v>
       </c>
-      <c r="S35" s="177"/>
-    </row>
-    <row r="36" spans="1:22" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P35" s="177"/>
+    </row>
+    <row r="36" spans="1:19" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="178"/>
       <c r="B36" s="49">
         <v>6</v>
       </c>
       <c r="C36" s="70"/>
       <c r="D36" s="72"/>
-      <c r="E36" s="108"/>
+      <c r="E36" s="107"/>
       <c r="F36" s="58"/>
       <c r="G36" s="71"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="71"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="110"/>
       <c r="L36" s="60"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="49">
+      <c r="M36" s="72"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="49">
         <v>6</v>
       </c>
-      <c r="S36" s="178"/>
-    </row>
-    <row r="37" spans="1:22" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="180" t="s">
-        <v>17</v>
+      <c r="P36" s="178"/>
+    </row>
+    <row r="37" spans="1:19" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="179" t="s">
+        <v>16</v>
       </c>
       <c r="B37" s="90">
         <v>1</v>
@@ -4631,278 +3968,237 @@
       <c r="C37" s="57">
         <v>1302</v>
       </c>
-      <c r="D37" s="155" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>80</v>
+      <c r="D37" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="103" t="s">
+        <v>75</v>
       </c>
       <c r="F37" s="56">
         <v>1201</v>
       </c>
       <c r="G37" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="59">
-        <v>314</v>
-      </c>
-      <c r="J37" s="156" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="H37" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="61">
+        <v>1203</v>
+      </c>
+      <c r="J37" s="161" t="s">
+        <v>97</v>
       </c>
       <c r="K37" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="61">
-        <v>1203</v>
-      </c>
-      <c r="M37" s="163" t="s">
-        <v>116</v>
+        <v>35</v>
+      </c>
+      <c r="L37" s="56">
+        <v>1307</v>
+      </c>
+      <c r="M37" s="154" t="s">
+        <v>100</v>
       </c>
       <c r="N37" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="O37" s="56">
-        <v>1307</v>
-      </c>
-      <c r="P37" s="156" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q37" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="R37" s="51">
+        <v>102</v>
+      </c>
+      <c r="O37" s="51">
         <v>1</v>
       </c>
-      <c r="S37" s="180" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="138" x14ac:dyDescent="0.35">
-      <c r="A38" s="180"/>
+      <c r="P37" s="179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="A38" s="179"/>
       <c r="B38" s="40">
         <v>2</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="155" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="D38" s="153" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="95" t="s">
+        <v>36</v>
       </c>
       <c r="F38" s="61">
         <v>1302</v>
       </c>
-      <c r="G38" s="155" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="104" t="s">
-        <v>80</v>
+      <c r="G38" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="103" t="s">
+        <v>75</v>
       </c>
       <c r="I38" s="56">
-        <v>314</v>
-      </c>
-      <c r="J38" s="156" t="s">
-        <v>101</v>
-      </c>
-      <c r="K38" s="96" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="J38" s="160" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38" s="101" t="s">
+        <v>91</v>
       </c>
       <c r="L38" s="56">
-        <v>413</v>
-      </c>
-      <c r="M38" s="162" t="s">
-        <v>109</v>
-      </c>
-      <c r="N38" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="O38" s="56">
         <v>1307</v>
       </c>
-      <c r="P38" s="156" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q38" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="43">
+      <c r="M38" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="N38" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="O38" s="43">
         <v>2</v>
       </c>
-      <c r="S38" s="180"/>
-    </row>
-    <row r="39" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="180"/>
+      <c r="P38" s="179"/>
+    </row>
+    <row r="39" spans="1:19" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="179"/>
       <c r="B39" s="40">
         <v>3</v>
       </c>
       <c r="C39" s="56"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="96"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="96"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="95"/>
       <c r="I39" s="56">
-        <v>314</v>
-      </c>
-      <c r="J39" s="156" t="s">
-        <v>101</v>
-      </c>
-      <c r="K39" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="56">
         <v>1307</v>
       </c>
-      <c r="M39" s="156" t="s">
-        <v>125</v>
-      </c>
-      <c r="N39" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="O39" s="77"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="43">
+      <c r="J39" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="77"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="43">
         <v>3</v>
       </c>
-      <c r="S39" s="180"/>
-    </row>
-    <row r="40" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="180"/>
+      <c r="P39" s="179"/>
+    </row>
+    <row r="40" spans="1:19" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="179"/>
       <c r="B40" s="91">
         <v>4</v>
       </c>
       <c r="C40" s="92"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="104"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="103"/>
       <c r="F40" s="61"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="56">
+      <c r="G40" s="155"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="56">
         <v>1304</v>
       </c>
-      <c r="M40" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="N40" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="O40" s="56"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="52">
+      <c r="J40" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" s="56"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="52">
         <v>4</v>
       </c>
-      <c r="S40" s="180"/>
-    </row>
-    <row r="41" spans="1:22" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="181"/>
+      <c r="P40" s="179"/>
+    </row>
+    <row r="41" spans="1:19" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="180"/>
       <c r="B41" s="89">
         <v>5</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="72"/>
-      <c r="E41" s="108"/>
+      <c r="E41" s="107"/>
       <c r="F41" s="58"/>
       <c r="G41" s="71"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="71"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="74"/>
       <c r="K41" s="110"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="53">
+      <c r="L41" s="121"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="53">
         <v>5</v>
       </c>
-      <c r="S41" s="181"/>
-    </row>
-    <row r="42" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="179"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="179"/>
-      <c r="L42" s="179"/>
-      <c r="M42" s="179"/>
-      <c r="N42" s="179"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="179"/>
-      <c r="S42" s="179"/>
-    </row>
-    <row r="43" spans="1:22" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A43" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="142"/>
-      <c r="U43" s="142"/>
-      <c r="V43" s="142"/>
+      <c r="P41" s="180"/>
+    </row>
+    <row r="42" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="184"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
+      <c r="J42" s="184"/>
+      <c r="K42" s="184"/>
+      <c r="L42" s="184"/>
+      <c r="M42" s="184"/>
+      <c r="N42" s="184"/>
+      <c r="O42" s="184"/>
+      <c r="P42" s="184"/>
+    </row>
+    <row r="43" spans="1:19" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A43" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="141"/>
+      <c r="R43" s="141"/>
+      <c r="S43" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="S13:S18"/>
+  <mergeCells count="20">
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="P25:P30"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="P37:P41"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P13:P18"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A31:A36"/>
-    <mergeCell ref="S7:S12"/>
+    <mergeCell ref="P7:P12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
-    <mergeCell ref="S19:S24"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A43:S43"/>
-    <mergeCell ref="S25:S30"/>
-    <mergeCell ref="A42:S42"/>
-    <mergeCell ref="S31:S36"/>
-    <mergeCell ref="S37:S41"/>
+    <mergeCell ref="P19:P24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="13" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="14" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4911,11 +4207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E22" zoomScale="32" zoomScaleNormal="32" zoomScaleSheetLayoutView="32" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView view="pageBreakPreview" zoomScale="32" zoomScaleNormal="32" zoomScaleSheetLayoutView="32" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="7" customWidth="1"/>
@@ -4946,16 +4242,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="37.5" x14ac:dyDescent="0.5">
-      <c r="G2" s="183" t="s">
+      <c r="G2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="10"/>
       <c r="P2" s="26" t="s">
         <v>7</v>
@@ -4968,16 +4264,16 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="182" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
+      <c r="G3" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
       <c r="O3" s="7"/>
       <c r="P3" s="24" t="s">
         <v>6</v>
@@ -4995,14 +4291,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="2"/>
       <c r="O4" s="4"/>
       <c r="P4" s="25" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="2"/>
@@ -5025,38 +4321,38 @@
       <c r="C6" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="186" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="187"/>
+      <c r="D6" s="192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="193"/>
       <c r="F6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="184" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="185"/>
+      <c r="G6" s="173" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="174"/>
       <c r="I6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="184" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="185"/>
+      <c r="J6" s="173" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="174"/>
       <c r="L6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="184" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="185"/>
+      <c r="M6" s="173" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="174"/>
       <c r="O6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="184" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="185"/>
+      <c r="P6" s="173" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="174"/>
       <c r="R6" s="28" t="s">
         <v>3</v>
       </c>
@@ -5066,7 +4362,7 @@
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.35">
       <c r="A7" s="175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="86">
         <v>1</v>
@@ -5074,47 +4370,47 @@
       <c r="C7" s="79">
         <v>1220</v>
       </c>
-      <c r="D7" s="158" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>49</v>
+      <c r="D7" s="156" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="57">
         <v>1305</v>
       </c>
-      <c r="G7" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="96" t="s">
-        <v>51</v>
+      <c r="G7" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="I7" s="56">
         <v>1312</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="96"/>
+        <v>107</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="95"/>
       <c r="O7" s="57">
         <v>1304</v>
       </c>
-      <c r="P7" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="97" t="s">
-        <v>143</v>
+      <c r="P7" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="96" t="s">
+        <v>112</v>
       </c>
       <c r="R7" s="45">
         <v>1</v>
       </c>
-      <c r="S7" s="189" t="s">
-        <v>12</v>
+      <c r="S7" s="186" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5125,52 +4421,52 @@
       <c r="C8" s="56">
         <v>1305</v>
       </c>
-      <c r="D8" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>51</v>
+      <c r="D8" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="59">
         <v>1220</v>
       </c>
-      <c r="G8" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>49</v>
+      <c r="G8" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="56">
         <v>1312</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="96" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="K8" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="L8" s="61">
         <v>205</v>
       </c>
       <c r="M8" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="95" t="s">
         <v>30</v>
-      </c>
-      <c r="N8" s="96" t="s">
-        <v>31</v>
       </c>
       <c r="O8" s="61">
         <v>1304</v>
       </c>
-      <c r="P8" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="104" t="s">
-        <v>143</v>
+      <c r="P8" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="103" t="s">
+        <v>112</v>
       </c>
       <c r="R8" s="35">
         <v>2</v>
       </c>
-      <c r="S8" s="190"/>
+      <c r="S8" s="187"/>
     </row>
     <row r="9" spans="1:19" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="176"/>
@@ -5180,83 +4476,83 @@
       <c r="C9" s="56">
         <v>1318</v>
       </c>
-      <c r="D9" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>48</v>
+      <c r="D9" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="61">
         <v>1305</v>
       </c>
-      <c r="G9" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="104" t="s">
-        <v>51</v>
+      <c r="G9" s="153" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="56"/>
       <c r="J9" s="55"/>
-      <c r="K9" s="96"/>
+      <c r="K9" s="95"/>
       <c r="L9" s="56">
         <v>1312</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="96" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="N9" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="O9" s="61">
         <v>205</v>
       </c>
       <c r="P9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="95" t="s">
         <v>30</v>
-      </c>
-      <c r="Q9" s="96" t="s">
-        <v>31</v>
       </c>
       <c r="R9" s="35">
         <v>3</v>
       </c>
-      <c r="S9" s="190"/>
-    </row>
-    <row r="10" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="S9" s="187"/>
+    </row>
+    <row r="10" spans="1:19" ht="75" x14ac:dyDescent="0.35">
       <c r="A10" s="177"/>
       <c r="B10" s="33">
         <v>4</v>
       </c>
       <c r="C10" s="61"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="104"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="56">
         <v>1305</v>
       </c>
-      <c r="G10" s="155" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="104" t="s">
-        <v>51</v>
+      <c r="G10" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="I10" s="56"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="61" t="s">
-        <v>135</v>
+      <c r="J10" s="155"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="61">
+        <v>1312</v>
       </c>
       <c r="M10" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="96" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="N10" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="O10" s="56"/>
       <c r="P10" s="54"/>
-      <c r="Q10" s="96"/>
+      <c r="Q10" s="95"/>
       <c r="R10" s="36">
         <v>4</v>
       </c>
-      <c r="S10" s="191"/>
+      <c r="S10" s="188"/>
     </row>
     <row r="11" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="177"/>
@@ -5265,23 +4561,23 @@
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="150"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="148"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="151"/>
+      <c r="H11" s="149"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="98"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="61"/>
       <c r="M11" s="55"/>
-      <c r="N11" s="104"/>
+      <c r="N11" s="103"/>
       <c r="O11" s="61"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="104"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="36">
         <v>5</v>
       </c>
-      <c r="S11" s="191"/>
+      <c r="S11" s="188"/>
     </row>
     <row r="12" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="178"/>
@@ -5290,81 +4586,75 @@
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="71"/>
-      <c r="E12" s="111"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="58"/>
       <c r="G12" s="74"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="133"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="132"/>
       <c r="L12" s="58"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="109"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="108"/>
       <c r="O12" s="58"/>
       <c r="P12" s="76"/>
-      <c r="Q12" s="134"/>
+      <c r="Q12" s="133"/>
       <c r="R12" s="37">
         <v>6</v>
       </c>
-      <c r="S12" s="192"/>
-    </row>
-    <row r="13" spans="1:19" ht="150" x14ac:dyDescent="0.35">
+      <c r="S12" s="189"/>
+    </row>
+    <row r="13" spans="1:19" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A13" s="175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="D13" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="56">
         <v>1318</v>
       </c>
-      <c r="G13" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="56">
-        <v>1312</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="96" t="s">
-        <v>58</v>
-      </c>
+      <c r="G13" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="61">
         <v>205</v>
       </c>
       <c r="M13" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="95" t="s">
         <v>30</v>
-      </c>
-      <c r="N13" s="96" t="s">
-        <v>31</v>
       </c>
       <c r="O13" s="56">
         <v>1304</v>
       </c>
       <c r="P13" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q13" s="96" t="s">
-        <v>64</v>
+        <v>113</v>
+      </c>
+      <c r="Q13" s="95" t="s">
+        <v>62</v>
       </c>
       <c r="R13" s="34">
         <v>1</v>
       </c>
-      <c r="S13" s="189" t="s">
-        <v>20</v>
+      <c r="S13" s="186" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5373,54 +4663,54 @@
         <v>2</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>106</v>
       </c>
       <c r="F14" s="56">
         <v>1318</v>
       </c>
-      <c r="G14" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="102" t="s">
-        <v>48</v>
+      <c r="G14" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>46</v>
       </c>
       <c r="I14" s="56">
         <v>1312</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="102" t="s">
-        <v>58</v>
+        <v>108</v>
+      </c>
+      <c r="K14" s="101" t="s">
+        <v>56</v>
       </c>
       <c r="L14" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="156" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="96" t="s">
-        <v>170</v>
+        <v>51</v>
+      </c>
+      <c r="M14" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="95" t="s">
+        <v>131</v>
       </c>
       <c r="O14" s="56">
         <v>1304</v>
       </c>
-      <c r="P14" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="96" t="s">
-        <v>64</v>
+      <c r="P14" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="95" t="s">
+        <v>62</v>
       </c>
       <c r="R14" s="35">
         <v>2</v>
       </c>
-      <c r="S14" s="190"/>
+      <c r="S14" s="187"/>
     </row>
     <row r="15" spans="1:19" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="176"/>
@@ -5430,52 +4720,46 @@
       <c r="C15" s="56">
         <v>1318</v>
       </c>
-      <c r="D15" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="59">
-        <v>1220</v>
-      </c>
-      <c r="G15" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="104" t="s">
-        <v>49</v>
-      </c>
+      <c r="D15" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="56">
         <v>1312</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="96" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="K15" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="L15" s="56">
-        <v>1210</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="96" t="s">
-        <v>62</v>
+        <v>416</v>
+      </c>
+      <c r="M15" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="95" t="s">
+        <v>159</v>
       </c>
       <c r="O15" s="56">
         <v>419</v>
       </c>
       <c r="P15" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q15" s="96" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="Q15" s="95" t="s">
+        <v>115</v>
       </c>
       <c r="R15" s="35">
         <v>3</v>
       </c>
-      <c r="S15" s="190"/>
+      <c r="S15" s="187"/>
     </row>
     <row r="16" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="177"/>
@@ -5485,46 +4769,39 @@
       <c r="C16" s="59">
         <v>1220</v>
       </c>
-      <c r="D16" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="104" t="s">
-        <v>49</v>
+      <c r="D16" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>47</v>
       </c>
       <c r="F16" s="61"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="62">
-        <v>408</v>
-      </c>
-      <c r="M16" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" s="104" t="s">
-        <v>138</v>
-      </c>
+      <c r="G16" s="160"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="56">
+        <v>1312</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="62"/>
+      <c r="N16" s="103"/>
       <c r="O16" s="61">
         <v>205</v>
       </c>
       <c r="P16" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="95" t="s">
         <v>30</v>
-      </c>
-      <c r="Q16" s="96" t="s">
-        <v>31</v>
       </c>
       <c r="R16" s="36">
         <v>4</v>
       </c>
-      <c r="S16" s="191"/>
+      <c r="S16" s="188"/>
     </row>
     <row r="17" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="177"/>
@@ -5533,23 +4810,23 @@
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="54"/>
-      <c r="E17" s="96"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="77"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="102"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="62"/>
       <c r="J17" s="55"/>
-      <c r="K17" s="104"/>
+      <c r="K17" s="103"/>
       <c r="L17" s="56"/>
       <c r="M17" s="54"/>
-      <c r="N17" s="96"/>
+      <c r="N17" s="95"/>
       <c r="O17" s="84"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="135"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="134"/>
       <c r="R17" s="36">
         <v>5</v>
       </c>
-      <c r="S17" s="191"/>
+      <c r="S17" s="188"/>
     </row>
     <row r="18" spans="1:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="178"/>
@@ -5558,63 +4835,63 @@
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="60"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="109"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="108"/>
       <c r="I18" s="60"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="108"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="60"/>
       <c r="M18" s="72"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="109"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="108"/>
       <c r="R18" s="37">
         <v>6</v>
       </c>
-      <c r="S18" s="192"/>
+      <c r="S18" s="189"/>
     </row>
     <row r="19" spans="1:19" ht="146.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="34">
         <v>1</v>
       </c>
       <c r="C19" s="61"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="104"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="103"/>
       <c r="F19" s="59">
         <v>1220</v>
       </c>
-      <c r="G19" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="H19" s="104" t="s">
-        <v>51</v>
+      <c r="G19" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="I19" s="57">
         <v>1312</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="102" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="K19" s="101" t="s">
+        <v>67</v>
       </c>
       <c r="L19" s="61"/>
       <c r="M19" s="54"/>
-      <c r="N19" s="96"/>
+      <c r="N19" s="95"/>
       <c r="O19" s="56"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="96"/>
+      <c r="Q19" s="95"/>
       <c r="R19" s="34">
         <v>1</v>
       </c>
-      <c r="S19" s="189" t="s">
-        <v>14</v>
+      <c r="S19" s="186" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.35">
@@ -5623,42 +4900,42 @@
         <v>2</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="61">
         <v>1220</v>
       </c>
-      <c r="G20" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="104" t="s">
-        <v>51</v>
+      <c r="G20" s="153" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="I20" s="61">
         <v>1312</v>
       </c>
       <c r="J20" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>56</v>
       </c>
       <c r="L20" s="61"/>
       <c r="M20" s="54"/>
-      <c r="N20" s="96"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="56">
         <v>419</v>
       </c>
       <c r="P20" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="96" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="Q20" s="95" t="s">
+        <v>115</v>
       </c>
       <c r="R20" s="35">
         <v>2</v>
       </c>
-      <c r="S20" s="190"/>
+      <c r="S20" s="187"/>
     </row>
     <row r="21" spans="1:19" ht="75" x14ac:dyDescent="0.35">
       <c r="A21" s="176"/>
@@ -5668,46 +4945,46 @@
       <c r="C21" s="61">
         <v>1220</v>
       </c>
-      <c r="D21" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>51</v>
+      <c r="D21" s="153" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="56"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="102"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="101"/>
       <c r="I21" s="56">
         <v>1312</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="96" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="K21" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="L21" s="61">
         <v>1304</v>
       </c>
       <c r="M21" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="96" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="N21" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" s="98" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="P21" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="97" t="s">
+        <v>43</v>
       </c>
       <c r="R21" s="35">
         <v>3</v>
       </c>
-      <c r="S21" s="190"/>
+      <c r="S21" s="187"/>
     </row>
     <row r="22" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="177"/>
@@ -5717,40 +4994,34 @@
       <c r="C22" s="56">
         <v>1220</v>
       </c>
-      <c r="D22" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="104" t="s">
-        <v>51</v>
+      <c r="D22" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="F22" s="56"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="56">
-        <v>1312</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="96" t="s">
-        <v>58</v>
-      </c>
+      <c r="G22" s="153"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="95"/>
       <c r="L22" s="56">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="M22" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="96" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="N22" s="95" t="s">
+        <v>33</v>
       </c>
       <c r="O22" s="56"/>
       <c r="P22" s="54"/>
-      <c r="Q22" s="96"/>
+      <c r="Q22" s="95"/>
       <c r="R22" s="36">
         <v>4</v>
       </c>
-      <c r="S22" s="191"/>
+      <c r="S22" s="188"/>
     </row>
     <row r="23" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="177"/>
@@ -5759,23 +5030,23 @@
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="136"/>
+      <c r="E23" s="135"/>
       <c r="F23" s="61"/>
       <c r="G23" s="54"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="104"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
       <c r="L23" s="73"/>
       <c r="M23" s="55"/>
-      <c r="N23" s="96"/>
+      <c r="N23" s="95"/>
       <c r="O23" s="56"/>
       <c r="P23" s="55"/>
-      <c r="Q23" s="96"/>
+      <c r="Q23" s="95"/>
       <c r="R23" s="36">
         <v>5</v>
       </c>
-      <c r="S23" s="191"/>
+      <c r="S23" s="188"/>
     </row>
     <row r="24" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="178"/>
@@ -5784,27 +5055,27 @@
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="72"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="127"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="74"/>
-      <c r="H24" s="111"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="58"/>
       <c r="J24" s="74"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="127"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="126"/>
       <c r="M24" s="74"/>
-      <c r="N24" s="111"/>
+      <c r="N24" s="110"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="109"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="108"/>
       <c r="R24" s="37">
         <v>6</v>
       </c>
-      <c r="S24" s="192"/>
-    </row>
-    <row r="25" spans="1:19" ht="187.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="189"/>
+    </row>
+    <row r="25" spans="1:19" ht="75" x14ac:dyDescent="0.35">
       <c r="A25" s="175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="34">
         <v>1</v>
@@ -5812,53 +5083,53 @@
       <c r="C25" s="59">
         <v>1220</v>
       </c>
-      <c r="D25" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>49</v>
+      <c r="D25" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>47</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="98" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="G25" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="97" t="s">
+        <v>43</v>
       </c>
       <c r="I25" s="57">
         <v>1312</v>
       </c>
       <c r="J25" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" s="102" t="s">
-        <v>71</v>
+        <v>146</v>
+      </c>
+      <c r="K25" s="101" t="s">
+        <v>67</v>
       </c>
       <c r="L25" s="56">
         <v>1210</v>
       </c>
       <c r="M25" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="N25" s="96" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="N25" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="O25" s="56">
         <v>1304</v>
       </c>
       <c r="P25" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="96" t="s">
-        <v>148</v>
+        <v>111</v>
+      </c>
+      <c r="Q25" s="95" t="s">
+        <v>149</v>
       </c>
       <c r="R25" s="34">
         <v>1</v>
       </c>
-      <c r="S25" s="189" t="s">
-        <v>15</v>
+      <c r="S25" s="186" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="112.5" x14ac:dyDescent="0.35">
@@ -5869,52 +5140,52 @@
       <c r="C26" s="56">
         <v>1318</v>
       </c>
-      <c r="D26" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="102" t="s">
-        <v>48</v>
+      <c r="D26" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>46</v>
       </c>
       <c r="F26" s="59">
         <v>1220</v>
       </c>
-      <c r="G26" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="104" t="s">
-        <v>49</v>
+      <c r="G26" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="103" t="s">
+        <v>47</v>
       </c>
       <c r="I26" s="56">
         <v>1312</v>
       </c>
       <c r="J26" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="102" t="s">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="K26" s="101" t="s">
+        <v>67</v>
       </c>
       <c r="L26" s="56">
         <v>1210</v>
       </c>
       <c r="M26" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="N26" s="96" t="s">
-        <v>62</v>
+        <v>147</v>
+      </c>
+      <c r="N26" s="95" t="s">
+        <v>152</v>
       </c>
       <c r="O26" s="56">
         <v>1304</v>
       </c>
-      <c r="P26" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="96" t="s">
-        <v>64</v>
+      <c r="P26" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" s="95" t="s">
+        <v>62</v>
       </c>
       <c r="R26" s="35">
         <v>2</v>
       </c>
-      <c r="S26" s="190"/>
+      <c r="S26" s="187"/>
     </row>
     <row r="27" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="176"/>
@@ -5924,89 +5195,95 @@
       <c r="C27" s="59">
         <v>1220</v>
       </c>
-      <c r="D27" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>49</v>
+      <c r="D27" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>47</v>
       </c>
       <c r="F27" s="56">
         <v>1318</v>
       </c>
-      <c r="G27" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="102" t="s">
-        <v>48</v>
+      <c r="G27" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="101" t="s">
+        <v>46</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="J27" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="96" t="s">
-        <v>61</v>
+        <v>143</v>
+      </c>
+      <c r="J27" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="95" t="s">
+        <v>59</v>
       </c>
       <c r="L27" s="56">
         <v>1312</v>
       </c>
       <c r="M27" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="N27" s="96" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="N27" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="O27" s="61">
         <v>1304</v>
       </c>
-      <c r="P27" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q27" s="104" t="s">
-        <v>143</v>
+      <c r="P27" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="103" t="s">
+        <v>112</v>
       </c>
       <c r="R27" s="35">
         <v>3</v>
       </c>
-      <c r="S27" s="190"/>
-    </row>
-    <row r="28" spans="1:19" ht="150" x14ac:dyDescent="0.35">
+      <c r="S27" s="187"/>
+    </row>
+    <row r="28" spans="1:19" ht="75" x14ac:dyDescent="0.35">
       <c r="A28" s="177"/>
       <c r="B28" s="36">
         <v>4</v>
       </c>
       <c r="C28" s="62"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="104"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="N28" s="106" t="s">
-        <v>195</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q28" s="104" t="s">
-        <v>193</v>
+      <c r="G28" s="153"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="69">
+        <v>1304</v>
+      </c>
+      <c r="M28" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="61">
+        <v>311</v>
+      </c>
+      <c r="P28" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="103" t="s">
+        <v>149</v>
       </c>
       <c r="R28" s="36">
         <v>4</v>
       </c>
-      <c r="S28" s="191"/>
+      <c r="S28" s="188"/>
     </row>
     <row r="29" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="177"/>
@@ -6015,23 +5292,23 @@
       </c>
       <c r="C29" s="62"/>
       <c r="D29" s="54"/>
-      <c r="E29" s="102"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="56"/>
       <c r="J29" s="55"/>
-      <c r="K29" s="96"/>
+      <c r="K29" s="95"/>
       <c r="L29" s="56"/>
       <c r="M29" s="55"/>
-      <c r="N29" s="104"/>
+      <c r="N29" s="103"/>
       <c r="O29" s="62"/>
       <c r="P29" s="54"/>
-      <c r="Q29" s="104"/>
+      <c r="Q29" s="103"/>
       <c r="R29" s="36">
         <v>5</v>
       </c>
-      <c r="S29" s="191"/>
+      <c r="S29" s="188"/>
     </row>
     <row r="30" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="178"/>
@@ -6040,125 +5317,131 @@
       </c>
       <c r="C30" s="60"/>
       <c r="D30" s="71"/>
-      <c r="E30" s="111"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="75"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="130"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="129"/>
       <c r="I30" s="62"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="130"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="129"/>
       <c r="L30" s="75"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="130"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="129"/>
       <c r="O30" s="58"/>
       <c r="P30" s="74"/>
-      <c r="Q30" s="111"/>
+      <c r="Q30" s="110"/>
       <c r="R30" s="37">
         <v>6</v>
       </c>
-      <c r="S30" s="192"/>
-    </row>
-    <row r="31" spans="1:19" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="189"/>
+    </row>
+    <row r="31" spans="1:19" ht="75" x14ac:dyDescent="0.35">
       <c r="A31" s="175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="34">
         <v>1</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="102"/>
+        <v>138</v>
+      </c>
+      <c r="D31" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="61">
+        <v>1220</v>
+      </c>
+      <c r="G31" s="153" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="57">
+        <v>1312</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="95" t="s">
+        <v>56</v>
+      </c>
       <c r="L31" s="61">
         <v>1304</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="96" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="N31" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="O31" s="83"/>
       <c r="P31" s="54"/>
-      <c r="Q31" s="104"/>
+      <c r="Q31" s="103"/>
       <c r="R31" s="34">
         <v>1</v>
       </c>
-      <c r="S31" s="189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="138" x14ac:dyDescent="0.35">
+      <c r="S31" s="186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="75" x14ac:dyDescent="0.35">
       <c r="A32" s="176"/>
       <c r="B32" s="35">
         <v>2</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>131</v>
+      <c r="C32" s="61">
+        <v>1220</v>
+      </c>
+      <c r="D32" s="153" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="103" t="s">
+        <v>47</v>
       </c>
       <c r="F32" s="56">
         <v>1210</v>
       </c>
-      <c r="G32" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="96" t="s">
-        <v>51</v>
+      <c r="G32" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="I32" s="56">
         <v>1312</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" s="96" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="K32" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="L32" s="61">
         <v>1304</v>
       </c>
       <c r="M32" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="N32" s="96" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="N32" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="O32" s="56">
         <v>402</v>
       </c>
-      <c r="P32" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q32" s="96" t="s">
-        <v>44</v>
+      <c r="P32" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q32" s="95" t="s">
+        <v>42</v>
       </c>
       <c r="R32" s="35">
         <v>2</v>
       </c>
-      <c r="S32" s="190"/>
+      <c r="S32" s="187"/>
     </row>
     <row r="33" spans="1:22" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="176"/>
@@ -6168,42 +5451,48 @@
       <c r="C33" s="56">
         <v>1210</v>
       </c>
-      <c r="D33" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="104"/>
+      <c r="D33" s="153" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="59">
+        <v>1220</v>
+      </c>
+      <c r="G33" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="103" t="s">
+        <v>47</v>
+      </c>
       <c r="I33" s="61">
         <v>1312</v>
       </c>
       <c r="J33" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" s="102" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="K33" s="101" t="s">
+        <v>56</v>
       </c>
       <c r="L33" s="56"/>
       <c r="M33" s="54"/>
-      <c r="N33" s="96"/>
+      <c r="N33" s="95"/>
       <c r="O33" s="56">
         <v>1305</v>
       </c>
-      <c r="P33" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q33" s="96" t="s">
-        <v>55</v>
+      <c r="P33" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="95" t="s">
+        <v>53</v>
       </c>
       <c r="R33" s="35">
         <v>3</v>
       </c>
-      <c r="S33" s="190"/>
-    </row>
-    <row r="34" spans="1:22" ht="138" x14ac:dyDescent="0.35">
+      <c r="S33" s="187"/>
+    </row>
+    <row r="34" spans="1:22" ht="75" x14ac:dyDescent="0.35">
       <c r="A34" s="176"/>
       <c r="B34" s="36">
         <v>4</v>
@@ -6211,40 +5500,40 @@
       <c r="C34" s="56">
         <v>1210</v>
       </c>
-      <c r="D34" s="155" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>51</v>
+      <c r="D34" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="F34" s="56"/>
       <c r="G34" s="54"/>
-      <c r="H34" s="101"/>
+      <c r="H34" s="100"/>
       <c r="I34" s="61">
         <v>1313</v>
       </c>
       <c r="J34" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K34" s="102" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="K34" s="101" t="s">
+        <v>56</v>
       </c>
       <c r="L34" s="56"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="104"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="103"/>
       <c r="O34" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="95" t="s">
         <v>38</v>
-      </c>
-      <c r="Q34" s="96" t="s">
-        <v>39</v>
       </c>
       <c r="R34" s="36">
         <v>4</v>
       </c>
-      <c r="S34" s="190"/>
+      <c r="S34" s="187"/>
     </row>
     <row r="35" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="177"/>
@@ -6253,23 +5542,23 @@
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="54"/>
-      <c r="E35" s="96"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="56"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="101"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="56"/>
       <c r="J35" s="54"/>
-      <c r="K35" s="101"/>
+      <c r="K35" s="100"/>
       <c r="L35" s="61"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="104"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="103"/>
       <c r="O35" s="84"/>
       <c r="P35" s="63"/>
-      <c r="Q35" s="101"/>
+      <c r="Q35" s="100"/>
       <c r="R35" s="36">
         <v>5</v>
       </c>
-      <c r="S35" s="191"/>
+      <c r="S35" s="188"/>
     </row>
     <row r="36" spans="1:22" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="178"/>
@@ -6278,27 +5567,27 @@
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="72"/>
-      <c r="E36" s="108"/>
+      <c r="E36" s="107"/>
       <c r="F36" s="75"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="130"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="129"/>
       <c r="I36" s="60"/>
       <c r="J36" s="71"/>
-      <c r="K36" s="110"/>
+      <c r="K36" s="109"/>
       <c r="L36" s="75"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="109"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="108"/>
       <c r="R36" s="37">
         <v>6</v>
       </c>
-      <c r="S36" s="192"/>
+      <c r="S36" s="189"/>
     </row>
     <row r="37" spans="1:22" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="180" t="s">
-        <v>17</v>
+      <c r="A37" s="179" t="s">
+        <v>16</v>
       </c>
       <c r="B37" s="46">
         <v>1</v>
@@ -6306,258 +5595,272 @@
       <c r="C37" s="56">
         <v>1318</v>
       </c>
-      <c r="D37" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="96" t="s">
+      <c r="D37" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="104" t="s">
-        <v>46</v>
+      <c r="G37" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="103" t="s">
+        <v>44</v>
       </c>
       <c r="I37" s="61">
         <v>1312</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="102" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="K37" s="101" t="s">
+        <v>56</v>
       </c>
       <c r="L37" s="56">
         <v>1210</v>
       </c>
-      <c r="M37" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="N37" s="106" t="s">
-        <v>62</v>
+      <c r="M37" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="O37" s="56">
         <v>1305</v>
       </c>
-      <c r="P37" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q37" s="96" t="s">
-        <v>55</v>
+      <c r="P37" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="95" t="s">
+        <v>53</v>
       </c>
       <c r="R37" s="46">
         <v>1</v>
       </c>
-      <c r="S37" s="194" t="s">
-        <v>17</v>
+      <c r="S37" s="190" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="75" x14ac:dyDescent="0.35">
-      <c r="A38" s="180"/>
+      <c r="A38" s="179"/>
       <c r="B38" s="35">
         <v>2</v>
       </c>
       <c r="C38" s="56">
         <v>1318</v>
       </c>
-      <c r="D38" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>51</v>
+      <c r="D38" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="F38" s="59">
         <v>1220</v>
       </c>
-      <c r="G38" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="104" t="s">
-        <v>49</v>
+      <c r="G38" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="103" t="s">
+        <v>47</v>
       </c>
       <c r="I38" s="56">
         <v>1312</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="K38" s="96" t="s">
-        <v>58</v>
+        <v>108</v>
+      </c>
+      <c r="K38" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="L38" s="56">
         <v>1210</v>
       </c>
       <c r="M38" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="N38" s="96" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="N38" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="O38" s="56">
         <v>402</v>
       </c>
-      <c r="P38" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q38" s="96" t="s">
-        <v>44</v>
+      <c r="P38" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q38" s="95" t="s">
+        <v>42</v>
       </c>
       <c r="R38" s="35">
         <v>2</v>
       </c>
-      <c r="S38" s="194"/>
+      <c r="S38" s="190"/>
     </row>
     <row r="39" spans="1:22" ht="75" x14ac:dyDescent="0.35">
-      <c r="A39" s="180"/>
+      <c r="A39" s="179"/>
       <c r="B39" s="35">
         <v>3</v>
       </c>
       <c r="C39" s="56"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="96"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="56">
         <v>1318</v>
       </c>
-      <c r="G39" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="96" t="s">
-        <v>51</v>
+      <c r="G39" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="I39" s="61"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="104"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="103"/>
       <c r="L39" s="61">
         <v>1312</v>
       </c>
       <c r="M39" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" s="96" t="s">
-        <v>58</v>
+        <v>108</v>
+      </c>
+      <c r="N39" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="O39" s="56"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="104"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="103"/>
       <c r="R39" s="35">
         <v>3</v>
       </c>
-      <c r="S39" s="194"/>
+      <c r="S39" s="190"/>
     </row>
     <row r="40" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="180"/>
+      <c r="A40" s="179"/>
       <c r="B40" s="47">
         <v>4</v>
       </c>
       <c r="C40" s="61"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="104"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="103"/>
       <c r="F40" s="56">
         <v>1318</v>
       </c>
-      <c r="G40" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="96" t="s">
-        <v>51</v>
+      <c r="G40" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="I40" s="56"/>
       <c r="J40" s="55"/>
-      <c r="K40" s="98"/>
+      <c r="K40" s="97"/>
       <c r="L40" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="M40" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="104" t="s">
-        <v>88</v>
+        <v>141</v>
+      </c>
+      <c r="M40" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="103" t="s">
+        <v>155</v>
       </c>
       <c r="O40" s="61"/>
       <c r="P40" s="55"/>
-      <c r="Q40" s="104"/>
+      <c r="Q40" s="103"/>
       <c r="R40" s="47">
         <v>4</v>
       </c>
-      <c r="S40" s="194"/>
+      <c r="S40" s="190"/>
     </row>
     <row r="41" spans="1:22" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="181"/>
+      <c r="A41" s="180"/>
       <c r="B41" s="37">
         <v>5</v>
       </c>
       <c r="C41" s="60"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="126"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="125"/>
       <c r="F41" s="58"/>
       <c r="G41" s="74"/>
-      <c r="H41" s="111"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="75"/>
       <c r="J41" s="76"/>
-      <c r="K41" s="144"/>
+      <c r="K41" s="143"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="152"/>
-      <c r="Q41" s="153"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="133"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="150"/>
+      <c r="Q41" s="151"/>
       <c r="R41" s="37">
         <v>5</v>
       </c>
-      <c r="S41" s="195"/>
+      <c r="S41" s="191"/>
     </row>
     <row r="42" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="193"/>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="193"/>
-      <c r="L42" s="193"/>
-      <c r="M42" s="193"/>
-      <c r="N42" s="193"/>
-      <c r="O42" s="193"/>
-      <c r="P42" s="193"/>
-      <c r="Q42" s="193"/>
-      <c r="R42" s="193"/>
-      <c r="S42" s="193"/>
+      <c r="A42" s="185"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="185"/>
+      <c r="L42" s="185"/>
+      <c r="M42" s="185"/>
+      <c r="N42" s="185"/>
+      <c r="O42" s="185"/>
+      <c r="P42" s="185"/>
+      <c r="Q42" s="185"/>
+      <c r="R42" s="185"/>
+      <c r="S42" s="185"/>
     </row>
     <row r="43" spans="1:22" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A43" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="142"/>
-      <c r="U43" s="142"/>
-      <c r="V43" s="142"/>
+      <c r="A43" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="183"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="141"/>
+      <c r="U43" s="141"/>
+      <c r="V43" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="S7:S12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="S13:S18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="S19:S24"/>
     <mergeCell ref="A42:S42"/>
     <mergeCell ref="A43:S43"/>
     <mergeCell ref="A25:A30"/>
@@ -6566,20 +5869,6 @@
     <mergeCell ref="S31:S36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="S37:S41"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="S7:S12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="S13:S18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="S19:S24"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0.55118110236220474" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="15" orientation="landscape" r:id="rId1"/>
@@ -6593,11 +5882,11 @@
   </sheetPr>
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="54" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="54" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="7" customWidth="1"/>
@@ -6646,16 +5935,16 @@
       <c r="D2" s="13"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="183" t="s">
+      <c r="G2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
       <c r="P2" s="26" t="s">
         <v>7</v>
       </c>
@@ -6667,16 +5956,16 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="182" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
+      <c r="G3" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
       <c r="P3" s="24" t="s">
         <v>6</v>
       </c>
@@ -6690,13 +5979,13 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="P4" s="25" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -6710,38 +5999,38 @@
       <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="184" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="185"/>
+      <c r="D6" s="173" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="174"/>
       <c r="F6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="184" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="185"/>
+      <c r="G6" s="173" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="174"/>
       <c r="I6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="184" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="185"/>
+      <c r="J6" s="173" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="174"/>
       <c r="L6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="185"/>
+      <c r="M6" s="195" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="174"/>
       <c r="O6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="184" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="185"/>
+      <c r="P6" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="174"/>
       <c r="R6" s="41" t="s">
         <v>3</v>
       </c>
@@ -6751,7 +6040,7 @@
     </row>
     <row r="7" spans="1:19" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
@@ -6760,52 +6049,46 @@
         <v>205</v>
       </c>
       <c r="D7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="95" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="79">
         <v>1314</v>
       </c>
-      <c r="G7" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="143" t="s">
-        <v>156</v>
+      <c r="G7" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="142" t="s">
+        <v>123</v>
       </c>
       <c r="I7" s="61">
         <v>1303</v>
       </c>
-      <c r="J7" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="K7" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="L7" s="56">
-        <v>1301</v>
-      </c>
-      <c r="M7" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="N7" s="112" t="s">
-        <v>141</v>
-      </c>
+      <c r="J7" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="111"/>
       <c r="O7" s="56">
         <v>1217</v>
       </c>
-      <c r="P7" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q7" s="104" t="s">
-        <v>163</v>
+      <c r="P7" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="R7" s="34">
         <v>1</v>
       </c>
-      <c r="S7" s="189" t="s">
-        <v>12</v>
+      <c r="S7" s="186" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6816,145 +6099,163 @@
       <c r="C8" s="59">
         <v>1317</v>
       </c>
-      <c r="D8" s="157" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>151</v>
+      <c r="D8" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>118</v>
       </c>
       <c r="F8" s="67">
         <v>1313</v>
       </c>
-      <c r="G8" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>155</v>
+      <c r="G8" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="J8" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="104" t="s">
-        <v>47</v>
+        <v>139</v>
+      </c>
+      <c r="J8" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="103" t="s">
+        <v>45</v>
       </c>
       <c r="L8" s="56">
         <v>1217</v>
       </c>
-      <c r="M8" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="N8" s="104" t="s">
-        <v>163</v>
+      <c r="M8" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="O8" s="56">
-        <v>1301</v>
-      </c>
-      <c r="P8" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="112" t="s">
-        <v>141</v>
+        <v>1314</v>
+      </c>
+      <c r="P8" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="111" t="s">
+        <v>123</v>
       </c>
       <c r="R8" s="35">
         <v>2</v>
       </c>
-      <c r="S8" s="190"/>
+      <c r="S8" s="187"/>
     </row>
     <row r="9" spans="1:19" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="176"/>
       <c r="B9" s="32">
         <v>3</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="101"/>
+      <c r="C9" s="56">
+        <v>1314</v>
+      </c>
+      <c r="D9" s="153" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>123</v>
+      </c>
       <c r="F9" s="59">
         <v>1317</v>
       </c>
-      <c r="G9" s="157" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="101" t="s">
-        <v>151</v>
+      <c r="G9" s="155" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="100" t="s">
+        <v>118</v>
       </c>
       <c r="I9" s="59"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="M9" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="104" t="s">
-        <v>47</v>
+        <v>139</v>
+      </c>
+      <c r="M9" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="103" t="s">
+        <v>45</v>
       </c>
       <c r="O9" s="78"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="96"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="95"/>
       <c r="R9" s="35">
         <v>3</v>
       </c>
-      <c r="S9" s="190"/>
+      <c r="S9" s="187"/>
     </row>
     <row r="10" spans="1:19" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177"/>
       <c r="B10" s="33">
         <v>4</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="102"/>
+      <c r="C10" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="61">
         <v>205</v>
       </c>
       <c r="G10" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="95" t="s">
         <v>30</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>31</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="55"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="112"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="56">
+        <v>1314</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="111" t="s">
+        <v>123</v>
+      </c>
       <c r="O10" s="56"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="112"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="36">
         <v>4</v>
       </c>
-      <c r="S10" s="191"/>
+      <c r="S10" s="188"/>
     </row>
     <row r="11" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="177"/>
       <c r="B11" s="33">
         <v>5</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="96"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="56"/>
       <c r="G11" s="54"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="73"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="101"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="78"/>
       <c r="M11" s="55"/>
-      <c r="N11" s="96"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="78"/>
       <c r="P11" s="54"/>
-      <c r="Q11" s="102"/>
+      <c r="Q11" s="101"/>
       <c r="R11" s="36">
         <v>5</v>
       </c>
-      <c r="S11" s="191"/>
+      <c r="S11" s="188"/>
     </row>
     <row r="12" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="178"/>
@@ -6963,27 +6264,27 @@
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="74"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="141"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="140"/>
       <c r="I12" s="58"/>
       <c r="J12" s="71"/>
-      <c r="K12" s="110"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="75"/>
       <c r="M12" s="71"/>
-      <c r="N12" s="110"/>
+      <c r="N12" s="109"/>
       <c r="O12" s="75"/>
       <c r="P12" s="76"/>
-      <c r="Q12" s="130"/>
+      <c r="Q12" s="129"/>
       <c r="R12" s="37">
         <v>6</v>
       </c>
-      <c r="S12" s="192"/>
-    </row>
-    <row r="13" spans="1:19" ht="207" x14ac:dyDescent="0.35">
+      <c r="S12" s="189"/>
+    </row>
+    <row r="13" spans="1:19" ht="138" x14ac:dyDescent="0.35">
       <c r="A13" s="175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
@@ -6991,53 +6292,53 @@
       <c r="C13" s="79">
         <v>1314</v>
       </c>
-      <c r="D13" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="143" t="s">
-        <v>153</v>
+      <c r="D13" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="142" t="s">
+        <v>120</v>
       </c>
       <c r="F13" s="67">
         <v>1313</v>
       </c>
-      <c r="G13" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="104" t="s">
-        <v>155</v>
+      <c r="G13" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="I13" s="57">
         <v>1303</v>
       </c>
-      <c r="J13" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="N13" s="101" t="s">
-        <v>166</v>
+      <c r="J13" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="61">
+        <v>1217</v>
+      </c>
+      <c r="M13" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="100" t="s">
+        <v>127</v>
       </c>
       <c r="O13" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="104" t="s">
-        <v>169</v>
+        <v>51</v>
+      </c>
+      <c r="P13" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="103" t="s">
+        <v>130</v>
       </c>
       <c r="R13" s="31">
         <v>1</v>
       </c>
-      <c r="S13" s="189" t="s">
-        <v>13</v>
+      <c r="S13" s="186" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7048,52 +6349,52 @@
       <c r="C14" s="67">
         <v>1313</v>
       </c>
-      <c r="D14" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>154</v>
+      <c r="D14" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>121</v>
       </c>
       <c r="F14" s="61">
         <v>205</v>
       </c>
       <c r="G14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="95" t="s">
         <v>30</v>
-      </c>
-      <c r="H14" s="96" t="s">
-        <v>31</v>
       </c>
       <c r="I14" s="56">
         <v>1301</v>
       </c>
-      <c r="J14" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14" s="104" t="s">
-        <v>168</v>
+      <c r="J14" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="L14" s="56">
         <v>1217</v>
       </c>
-      <c r="M14" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="N14" s="104" t="s">
-        <v>163</v>
+      <c r="M14" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="O14" s="67">
-        <v>1303</v>
-      </c>
-      <c r="P14" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q14" s="112" t="s">
-        <v>141</v>
+        <v>1314</v>
+      </c>
+      <c r="P14" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" s="111" t="s">
+        <v>123</v>
       </c>
       <c r="R14" s="32">
         <v>2</v>
       </c>
-      <c r="S14" s="190"/>
+      <c r="S14" s="187"/>
     </row>
     <row r="15" spans="1:19" ht="171.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="176"/>
@@ -7104,88 +6405,88 @@
         <v>205</v>
       </c>
       <c r="D15" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="104"/>
+      <c r="F15" s="56">
+        <v>1313</v>
+      </c>
+      <c r="G15" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>122</v>
+      </c>
       <c r="I15" s="56">
         <v>1217</v>
       </c>
-      <c r="J15" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="104" t="s">
-        <v>163</v>
+      <c r="J15" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="L15" s="56">
-        <v>1303</v>
-      </c>
-      <c r="M15" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="N15" s="112" t="s">
-        <v>141</v>
+        <v>1314</v>
+      </c>
+      <c r="M15" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="111" t="s">
+        <v>123</v>
       </c>
       <c r="O15" s="56">
         <v>1301</v>
       </c>
-      <c r="P15" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q15" s="104" t="s">
-        <v>168</v>
+      <c r="P15" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="R15" s="32">
         <v>3</v>
       </c>
-      <c r="S15" s="190"/>
+      <c r="S15" s="187"/>
     </row>
     <row r="16" spans="1:19" ht="174.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="177"/>
       <c r="B16" s="36">
         <v>4</v>
       </c>
-      <c r="C16" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="104" t="s">
-        <v>47</v>
-      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="78"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="104"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="56">
         <v>1301</v>
       </c>
-      <c r="J16" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="104" t="s">
-        <v>168</v>
+      <c r="J16" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="L16" s="56"/>
       <c r="M16" s="54"/>
-      <c r="N16" s="96"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="56">
         <v>1217</v>
       </c>
-      <c r="P16" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q16" s="104" t="s">
-        <v>163</v>
+      <c r="P16" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="R16" s="33">
         <v>4</v>
       </c>
-      <c r="S16" s="191"/>
+      <c r="S16" s="188"/>
     </row>
     <row r="17" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="177"/>
@@ -7193,24 +6494,24 @@
         <v>5</v>
       </c>
       <c r="C17" s="62"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="96"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="56"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="96"/>
+      <c r="H17" s="95"/>
       <c r="I17" s="56"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
       <c r="L17" s="56"/>
       <c r="M17" s="54"/>
-      <c r="N17" s="102"/>
+      <c r="N17" s="101"/>
       <c r="O17" s="62"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="116"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="32">
         <v>5</v>
       </c>
-      <c r="S17" s="191"/>
+      <c r="S17" s="188"/>
     </row>
     <row r="18" spans="1:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="178"/>
@@ -7219,27 +6520,27 @@
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="74"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="111"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="60"/>
       <c r="J18" s="74"/>
-      <c r="K18" s="111"/>
+      <c r="K18" s="110"/>
       <c r="L18" s="60"/>
       <c r="M18" s="74"/>
-      <c r="N18" s="111"/>
+      <c r="N18" s="110"/>
       <c r="O18" s="60"/>
       <c r="P18" s="71"/>
-      <c r="Q18" s="111"/>
+      <c r="Q18" s="110"/>
       <c r="R18" s="39">
         <v>6</v>
       </c>
-      <c r="S18" s="192"/>
+      <c r="S18" s="189"/>
     </row>
     <row r="19" spans="1:19" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="38">
         <v>1</v>
@@ -7247,53 +6548,53 @@
       <c r="C19" s="67">
         <v>1313</v>
       </c>
-      <c r="D19" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="104" t="s">
-        <v>155</v>
+      <c r="D19" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="F19" s="79">
         <v>1314</v>
       </c>
-      <c r="G19" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="143" t="s">
-        <v>156</v>
+      <c r="G19" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="142" t="s">
+        <v>123</v>
       </c>
       <c r="I19" s="56">
         <v>1303</v>
       </c>
-      <c r="J19" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" s="112" t="s">
-        <v>177</v>
+      <c r="J19" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="111" t="s">
+        <v>137</v>
       </c>
       <c r="L19" s="56">
         <v>1301</v>
       </c>
-      <c r="M19" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="N19" s="104" t="s">
-        <v>168</v>
+      <c r="M19" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="O19" s="56">
         <v>1217</v>
       </c>
-      <c r="P19" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q19" s="104" t="s">
-        <v>163</v>
+      <c r="P19" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="R19" s="34">
         <v>1</v>
       </c>
-      <c r="S19" s="189" t="s">
-        <v>14</v>
+      <c r="S19" s="186" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7304,52 +6605,52 @@
       <c r="C20" s="67">
         <v>1313</v>
       </c>
-      <c r="D20" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="104" t="s">
-        <v>155</v>
+      <c r="D20" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="F20" s="59">
         <v>405</v>
       </c>
-      <c r="G20" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="112" t="s">
-        <v>160</v>
+      <c r="G20" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="111" t="s">
+        <v>124</v>
       </c>
       <c r="I20" s="56">
         <v>1301</v>
       </c>
-      <c r="J20" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="K20" s="104" t="s">
-        <v>168</v>
+      <c r="J20" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="L20" s="56">
-        <v>1303</v>
-      </c>
-      <c r="M20" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="N20" s="112" t="s">
-        <v>141</v>
+        <v>1314</v>
+      </c>
+      <c r="M20" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" s="111" t="s">
+        <v>123</v>
       </c>
       <c r="O20" s="56">
         <v>1217</v>
       </c>
-      <c r="P20" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q20" s="104" t="s">
-        <v>163</v>
+      <c r="P20" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="R20" s="35">
         <v>2</v>
       </c>
-      <c r="S20" s="190"/>
+      <c r="S20" s="187"/>
     </row>
     <row r="21" spans="1:19" ht="138" x14ac:dyDescent="0.35">
       <c r="A21" s="176"/>
@@ -7359,52 +6660,52 @@
       <c r="C21" s="67">
         <v>1313</v>
       </c>
-      <c r="D21" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>155</v>
+      <c r="D21" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="F21" s="59">
         <v>1317</v>
       </c>
-      <c r="G21" s="157" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>151</v>
+      <c r="G21" s="155" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="100" t="s">
+        <v>118</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="103" t="s">
         <v>38</v>
-      </c>
-      <c r="K21" s="104" t="s">
-        <v>39</v>
       </c>
       <c r="L21" s="56">
         <v>1217</v>
       </c>
-      <c r="M21" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="N21" s="104" t="s">
-        <v>163</v>
+      <c r="M21" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="O21" s="59">
         <v>304</v>
       </c>
-      <c r="P21" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" s="104" t="s">
-        <v>172</v>
+      <c r="P21" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="103" t="s">
+        <v>133</v>
       </c>
       <c r="R21" s="35">
         <v>3</v>
       </c>
-      <c r="S21" s="190"/>
+      <c r="S21" s="187"/>
     </row>
     <row r="22" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="177"/>
@@ -7414,34 +6715,40 @@
       <c r="C22" s="59">
         <v>1317</v>
       </c>
-      <c r="D22" s="157" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="102"/>
+      <c r="D22" s="155" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="59">
+        <v>1314</v>
+      </c>
+      <c r="G22" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="101" t="s">
+        <v>122</v>
+      </c>
       <c r="I22" s="56">
         <v>1217</v>
       </c>
-      <c r="J22" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="104" t="s">
-        <v>171</v>
+      <c r="J22" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="103" t="s">
+        <v>132</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="54"/>
-      <c r="N22" s="102"/>
+      <c r="N22" s="101"/>
       <c r="O22" s="56"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="101"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="100"/>
       <c r="R22" s="36">
         <v>4</v>
       </c>
-      <c r="S22" s="191"/>
+      <c r="S22" s="188"/>
     </row>
     <row r="23" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="177"/>
@@ -7450,23 +6757,23 @@
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="54"/>
-      <c r="E23" s="96"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="67"/>
       <c r="G23" s="54"/>
-      <c r="H23" s="101"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="69"/>
       <c r="J23" s="64"/>
-      <c r="K23" s="106"/>
+      <c r="K23" s="105"/>
       <c r="L23" s="56"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="104"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="103"/>
       <c r="O23" s="62"/>
       <c r="P23" s="54"/>
-      <c r="Q23" s="96"/>
+      <c r="Q23" s="95"/>
       <c r="R23" s="36">
         <v>5</v>
       </c>
-      <c r="S23" s="191"/>
+      <c r="S23" s="188"/>
     </row>
     <row r="24" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="178"/>
@@ -7475,27 +6782,27 @@
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="72"/>
-      <c r="E24" s="109"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="60"/>
       <c r="G24" s="72"/>
-      <c r="H24" s="110"/>
+      <c r="H24" s="109"/>
       <c r="I24" s="60"/>
       <c r="J24" s="72"/>
-      <c r="K24" s="108"/>
+      <c r="K24" s="107"/>
       <c r="L24" s="60"/>
       <c r="M24" s="72"/>
-      <c r="N24" s="108"/>
+      <c r="N24" s="107"/>
       <c r="O24" s="60"/>
       <c r="P24" s="72"/>
-      <c r="Q24" s="108"/>
+      <c r="Q24" s="107"/>
       <c r="R24" s="37">
         <v>6</v>
       </c>
-      <c r="S24" s="192"/>
+      <c r="S24" s="189"/>
     </row>
     <row r="25" spans="1:19" ht="138" x14ac:dyDescent="0.35">
       <c r="A25" s="175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="31">
         <v>1</v>
@@ -7503,53 +6810,47 @@
       <c r="C25" s="79">
         <v>1314</v>
       </c>
-      <c r="D25" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="79">
-        <v>1313</v>
-      </c>
-      <c r="G25" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" s="97" t="s">
-        <v>155</v>
-      </c>
+      <c r="D25" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="59"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="56">
         <v>1303</v>
       </c>
-      <c r="J25" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="112" t="s">
-        <v>177</v>
+      <c r="J25" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="111" t="s">
+        <v>137</v>
       </c>
       <c r="L25" s="56">
         <v>1217</v>
       </c>
-      <c r="M25" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" s="104" t="s">
-        <v>163</v>
+      <c r="M25" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="O25" s="56">
         <v>1301</v>
       </c>
-      <c r="P25" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="104" t="s">
-        <v>168</v>
+      <c r="P25" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="R25" s="31">
         <v>1</v>
       </c>
-      <c r="S25" s="189" t="s">
-        <v>18</v>
+      <c r="S25" s="186" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="138" x14ac:dyDescent="0.35">
@@ -7560,132 +6861,130 @@
       <c r="C26" s="67">
         <v>1313</v>
       </c>
-      <c r="D26" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="59">
-        <v>1314</v>
-      </c>
-      <c r="G26" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="105" t="s">
-        <v>156</v>
-      </c>
+      <c r="D26" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="104"/>
       <c r="I26" s="56">
         <v>1217</v>
       </c>
-      <c r="J26" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="K26" s="104" t="s">
-        <v>163</v>
+      <c r="J26" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="L26" s="56">
         <v>1301</v>
       </c>
-      <c r="M26" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="104" t="s">
-        <v>168</v>
+      <c r="M26" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="O26" s="56">
         <v>1303</v>
       </c>
-      <c r="P26" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q26" s="112" t="s">
-        <v>141</v>
+      <c r="P26" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="111" t="s">
+        <v>123</v>
       </c>
       <c r="R26" s="32">
         <v>2</v>
       </c>
-      <c r="S26" s="190"/>
-    </row>
-    <row r="27" spans="1:19" ht="207" x14ac:dyDescent="0.35">
+      <c r="S26" s="187"/>
+    </row>
+    <row r="27" spans="1:19" ht="138" x14ac:dyDescent="0.35">
       <c r="A27" s="176"/>
       <c r="B27" s="32">
         <v>3</v>
       </c>
       <c r="C27" s="59"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="112"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="67">
         <v>1313</v>
       </c>
-      <c r="G27" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="101"/>
+      <c r="G27" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="61">
+        <v>1217</v>
+      </c>
+      <c r="J27" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" s="61">
+        <v>1314</v>
+      </c>
+      <c r="M27" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="100" t="s">
+        <v>123</v>
+      </c>
       <c r="O27" s="56">
         <v>1301</v>
       </c>
-      <c r="P27" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q27" s="104" t="s">
-        <v>168</v>
+      <c r="P27" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="R27" s="32">
         <v>3</v>
       </c>
-      <c r="S27" s="190"/>
-    </row>
-    <row r="28" spans="1:19" ht="207" x14ac:dyDescent="0.35">
+      <c r="S27" s="187"/>
+    </row>
+    <row r="28" spans="1:19" ht="138" x14ac:dyDescent="0.35">
       <c r="A28" s="177"/>
       <c r="B28" s="33">
         <v>4</v>
       </c>
       <c r="C28" s="77"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="155" t="s">
-        <v>38</v>
+      <c r="D28" s="155"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="153" t="s">
+        <v>119</v>
       </c>
       <c r="H28" s="104" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="I28" s="56"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="101"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="100"/>
       <c r="L28" s="56"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="P28" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="101" t="s">
-        <v>166</v>
+      <c r="M28" s="153"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="61">
+        <v>1217</v>
+      </c>
+      <c r="P28" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" s="100" t="s">
+        <v>127</v>
       </c>
       <c r="R28" s="33">
         <v>4</v>
       </c>
-      <c r="S28" s="191"/>
+      <c r="S28" s="188"/>
     </row>
     <row r="29" spans="1:19" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="177"/>
@@ -7694,23 +6993,23 @@
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="54"/>
-      <c r="E29" s="98"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="62"/>
       <c r="G29" s="54"/>
-      <c r="H29" s="102"/>
+      <c r="H29" s="101"/>
       <c r="I29" s="56"/>
       <c r="J29" s="54"/>
-      <c r="K29" s="96"/>
+      <c r="K29" s="95"/>
       <c r="L29" s="56"/>
       <c r="M29" s="54"/>
-      <c r="N29" s="101"/>
+      <c r="N29" s="100"/>
       <c r="O29" s="56"/>
       <c r="P29" s="54"/>
-      <c r="Q29" s="96"/>
+      <c r="Q29" s="95"/>
       <c r="R29" s="33">
         <v>5</v>
       </c>
-      <c r="S29" s="191"/>
+      <c r="S29" s="188"/>
     </row>
     <row r="30" spans="1:19" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="178"/>
@@ -7719,27 +7018,27 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
-      <c r="E30" s="139"/>
+      <c r="E30" s="138"/>
       <c r="F30" s="58"/>
       <c r="G30" s="74"/>
-      <c r="H30" s="111"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="75"/>
       <c r="J30" s="76"/>
-      <c r="K30" s="130"/>
+      <c r="K30" s="129"/>
       <c r="L30" s="75"/>
       <c r="M30" s="76"/>
-      <c r="N30" s="130"/>
+      <c r="N30" s="129"/>
       <c r="O30" s="75"/>
       <c r="P30" s="76"/>
-      <c r="Q30" s="130"/>
+      <c r="Q30" s="129"/>
       <c r="R30" s="39">
         <v>6</v>
       </c>
-      <c r="S30" s="192"/>
+      <c r="S30" s="189"/>
     </row>
     <row r="31" spans="1:19" ht="138" x14ac:dyDescent="0.35">
       <c r="A31" s="175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="31">
         <v>1</v>
@@ -7747,152 +7046,140 @@
       <c r="C31" s="79">
         <v>1314</v>
       </c>
-      <c r="D31" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="143" t="s">
-        <v>156</v>
+      <c r="D31" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="142" t="s">
+        <v>123</v>
       </c>
       <c r="F31" s="67"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="104"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="56">
         <v>1217</v>
       </c>
-      <c r="J31" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="L31" s="67">
-        <v>1303</v>
-      </c>
-      <c r="M31" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="N31" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="O31" s="56">
+      <c r="J31" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="56">
         <v>1301</v>
       </c>
-      <c r="P31" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q31" s="104" t="s">
-        <v>168</v>
-      </c>
+      <c r="M31" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O31" s="56"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="103"/>
       <c r="R31" s="31">
         <v>1</v>
       </c>
-      <c r="S31" s="189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="337.5" x14ac:dyDescent="0.35">
+      <c r="S31" s="186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="138" x14ac:dyDescent="0.35">
       <c r="A32" s="176"/>
       <c r="B32" s="32">
         <v>2</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>159</v>
+      <c r="C32" s="61">
+        <v>1314</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="67">
-        <v>1313</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="104" t="s">
-        <v>155</v>
+      <c r="E32" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="103" t="s">
+        <v>41</v>
       </c>
       <c r="I32" s="56">
         <v>1217</v>
       </c>
-      <c r="J32" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="104" t="s">
-        <v>171</v>
+      <c r="J32" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="103" t="s">
+        <v>132</v>
       </c>
       <c r="L32" s="56">
         <v>1301</v>
       </c>
-      <c r="M32" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="N32" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="O32" s="171" t="s">
-        <v>181</v>
-      </c>
-      <c r="P32" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q32" s="112" t="s">
-        <v>141</v>
-      </c>
+      <c r="M32" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" s="169"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="111"/>
       <c r="R32" s="32">
         <v>2</v>
       </c>
-      <c r="S32" s="190"/>
-    </row>
-    <row r="33" spans="1:22" ht="300" x14ac:dyDescent="0.35">
+      <c r="S32" s="187"/>
+    </row>
+    <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.35">
       <c r="A33" s="176"/>
       <c r="B33" s="32">
         <v>3</v>
       </c>
       <c r="C33" s="56"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="61" t="s">
-        <v>159</v>
+      <c r="D33" s="160"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="61">
+        <v>1314</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" s="96" t="s">
         <v>158</v>
+      </c>
+      <c r="H33" s="95" t="s">
+        <v>123</v>
       </c>
       <c r="I33" s="56">
         <v>1301</v>
       </c>
-      <c r="J33" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" s="104" t="s">
-        <v>168</v>
+      <c r="J33" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="L33" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="103" t="s">
         <v>38</v>
-      </c>
-      <c r="N33" s="104" t="s">
-        <v>39</v>
       </c>
       <c r="O33" s="61">
         <v>402</v>
       </c>
-      <c r="P33" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q33" s="101" t="s">
-        <v>44</v>
+      <c r="P33" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q33" s="100" t="s">
+        <v>42</v>
       </c>
       <c r="R33" s="32">
         <v>3</v>
       </c>
-      <c r="S33" s="190"/>
+      <c r="S33" s="187"/>
     </row>
     <row r="34" spans="1:22" ht="69" x14ac:dyDescent="0.35">
       <c r="A34" s="176"/>
@@ -7900,36 +7187,36 @@
         <v>4</v>
       </c>
       <c r="C34" s="56"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="101"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="100"/>
       <c r="F34" s="67">
         <v>1313</v>
       </c>
-      <c r="G34" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="104" t="s">
-        <v>155</v>
+      <c r="G34" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="I34" s="67"/>
       <c r="J34" s="54"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="56">
+      <c r="K34" s="101"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="56">
         <v>1301</v>
       </c>
-      <c r="M34" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="N34" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="O34" s="56"/>
-      <c r="P34" s="155"/>
-      <c r="Q34" s="104"/>
+      <c r="P34" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="103" t="s">
+        <v>129</v>
+      </c>
       <c r="R34" s="33">
         <v>4</v>
       </c>
-      <c r="S34" s="190"/>
+      <c r="S34" s="187"/>
     </row>
     <row r="35" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="177"/>
@@ -7938,23 +7225,23 @@
       </c>
       <c r="C35" s="62"/>
       <c r="D35" s="54"/>
-      <c r="E35" s="102"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="62"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="115"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="114"/>
       <c r="I35" s="68"/>
       <c r="J35" s="64"/>
-      <c r="K35" s="106"/>
+      <c r="K35" s="105"/>
       <c r="L35" s="56"/>
       <c r="M35" s="54"/>
-      <c r="N35" s="101"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="56"/>
       <c r="P35" s="54"/>
-      <c r="Q35" s="96"/>
+      <c r="Q35" s="95"/>
       <c r="R35" s="33">
         <v>5</v>
       </c>
-      <c r="S35" s="191"/>
+      <c r="S35" s="188"/>
     </row>
     <row r="36" spans="1:22" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="178"/>
@@ -7962,231 +7249,231 @@
         <v>6</v>
       </c>
       <c r="C36" s="60"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="140"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="139"/>
       <c r="F36" s="58"/>
       <c r="G36" s="71"/>
-      <c r="H36" s="111"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="80"/>
       <c r="J36" s="81"/>
-      <c r="K36" s="134"/>
+      <c r="K36" s="133"/>
       <c r="L36" s="80"/>
       <c r="M36" s="81"/>
-      <c r="N36" s="134"/>
+      <c r="N36" s="133"/>
       <c r="O36" s="80"/>
       <c r="P36" s="81"/>
-      <c r="Q36" s="134"/>
+      <c r="Q36" s="133"/>
       <c r="R36" s="39">
         <v>6</v>
       </c>
-      <c r="S36" s="192"/>
+      <c r="S36" s="189"/>
     </row>
     <row r="37" spans="1:22" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="180" t="s">
-        <v>17</v>
+      <c r="A37" s="179" t="s">
+        <v>16</v>
       </c>
       <c r="B37" s="31">
         <v>1</v>
       </c>
-      <c r="C37" s="79">
-        <v>1314</v>
-      </c>
-      <c r="D37" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="143" t="s">
-        <v>156</v>
-      </c>
+      <c r="C37" s="79"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="142"/>
       <c r="F37" s="79">
         <v>1313</v>
       </c>
-      <c r="G37" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="97" t="s">
-        <v>155</v>
+      <c r="G37" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="96" t="s">
+        <v>122</v>
       </c>
       <c r="I37" s="56"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="112"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="111"/>
       <c r="L37" s="56"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="104"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="103"/>
       <c r="O37" s="56">
         <v>1217</v>
       </c>
-      <c r="P37" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q37" s="104" t="s">
-        <v>163</v>
+      <c r="P37" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="R37" s="34">
         <v>1</v>
       </c>
-      <c r="S37" s="194" t="s">
-        <v>27</v>
+      <c r="S37" s="190" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="180"/>
+      <c r="A38" s="179"/>
       <c r="B38" s="32">
         <v>2</v>
       </c>
       <c r="C38" s="67">
         <v>1313</v>
       </c>
-      <c r="D38" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>155</v>
+      <c r="D38" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="F38" s="59">
         <v>1314</v>
       </c>
-      <c r="G38" s="155" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="105" t="s">
-        <v>156</v>
+      <c r="G38" s="153" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="104" t="s">
+        <v>123</v>
       </c>
       <c r="I38" s="56"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="104"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="103"/>
       <c r="L38" s="56">
         <v>1217</v>
       </c>
-      <c r="M38" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="N38" s="104" t="s">
-        <v>163</v>
+      <c r="M38" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="N38" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="O38" s="56">
         <v>1301</v>
       </c>
-      <c r="P38" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q38" s="104" t="s">
-        <v>168</v>
+      <c r="P38" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q38" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="R38" s="35">
         <v>2</v>
       </c>
-      <c r="S38" s="194"/>
+      <c r="S38" s="190"/>
     </row>
     <row r="39" spans="1:22" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="180"/>
+      <c r="A39" s="179"/>
       <c r="B39" s="40">
         <v>3</v>
       </c>
       <c r="C39" s="67">
         <v>1313</v>
       </c>
-      <c r="D39" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="104" t="s">
-        <v>155</v>
+      <c r="D39" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="F39" s="56"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="96"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="95"/>
       <c r="I39" s="61">
         <v>402</v>
       </c>
-      <c r="J39" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="101" t="s">
-        <v>44</v>
+      <c r="J39" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="100" t="s">
+        <v>42</v>
       </c>
       <c r="L39" s="56">
         <v>1301</v>
       </c>
-      <c r="M39" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="N39" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="O39" s="56"/>
-      <c r="P39" s="157"/>
-      <c r="Q39" s="101"/>
+      <c r="M39" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="N39" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O39" s="56">
+        <v>1314</v>
+      </c>
+      <c r="P39" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39" s="111" t="s">
+        <v>123</v>
+      </c>
       <c r="R39" s="43">
         <v>3</v>
       </c>
-      <c r="S39" s="194"/>
+      <c r="S39" s="190"/>
     </row>
     <row r="40" spans="1:22" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="180"/>
+      <c r="A40" s="179"/>
       <c r="B40" s="32">
         <v>4</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D40" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="103" t="s">
+        <v>44</v>
       </c>
       <c r="F40" s="77"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="96"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="95"/>
       <c r="I40" s="56">
         <v>1301</v>
       </c>
-      <c r="J40" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="K40" s="104" t="s">
-        <v>168</v>
+      <c r="J40" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="L40" s="61">
         <v>402</v>
       </c>
-      <c r="M40" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="N40" s="101" t="s">
-        <v>44</v>
+      <c r="M40" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="100" t="s">
+        <v>42</v>
       </c>
       <c r="O40" s="78"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="112"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="111"/>
       <c r="R40" s="44">
         <v>4</v>
       </c>
-      <c r="S40" s="194"/>
+      <c r="S40" s="190"/>
     </row>
     <row r="41" spans="1:22" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="181"/>
+      <c r="A41" s="180"/>
       <c r="B41" s="39">
         <v>5</v>
       </c>
       <c r="C41" s="58"/>
       <c r="D41" s="76"/>
-      <c r="E41" s="111"/>
+      <c r="E41" s="110"/>
       <c r="F41" s="60"/>
       <c r="G41" s="72"/>
-      <c r="H41" s="108"/>
+      <c r="H41" s="107"/>
       <c r="I41" s="60"/>
       <c r="J41" s="74"/>
-      <c r="K41" s="110"/>
+      <c r="K41" s="109"/>
       <c r="L41" s="60"/>
       <c r="M41" s="71"/>
-      <c r="N41" s="110"/>
+      <c r="N41" s="109"/>
       <c r="O41" s="60"/>
       <c r="P41" s="74"/>
-      <c r="Q41" s="110"/>
+      <c r="Q41" s="109"/>
       <c r="R41" s="37">
         <v>5</v>
       </c>
-      <c r="S41" s="195"/>
+      <c r="S41" s="191"/>
     </row>
     <row r="42" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="21"/>
@@ -8204,38 +7491,33 @@
       <c r="N42" s="18"/>
     </row>
     <row r="43" spans="1:22" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.35">
-      <c r="A43" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="142"/>
-      <c r="U43" s="142"/>
-      <c r="V43" s="142"/>
+      <c r="A43" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="183"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="141"/>
+      <c r="U43" s="141"/>
+      <c r="V43" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A43:S43"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="M6:N6"/>
@@ -8252,9 +7534,14 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.55118110236220474" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="11" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="13" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>